--- a/Disaggregation-PecanStreet/VRNN_theano_version/output/vrnn-disAll-dataport.xlsx
+++ b/Disaggregation-PecanStreet/VRNN_theano_version/output/vrnn-disAll-dataport.xlsx
@@ -5,19 +5,23 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="236" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="204" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="all-builds" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="each-builds" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="notes" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="reproducibility" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">reproducibility!$A$1:$M$37</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="467">
   <si>
     <t>epochs</t>
   </si>
@@ -565,6 +569,12 @@
     <t>good</t>
   </si>
   <si>
+    <t>18-06-19_14-45</t>
+  </si>
+  <si>
+    <t>test of 18-06-14_11-06 (but as it was in spiedie, its test might have some of the training)</t>
+  </si>
+  <si>
     <t>18-03-31_23-03</t>
   </si>
   <si>
@@ -649,6 +659,9 @@
     <t>18-06-14_10-53</t>
   </si>
   <si>
+    <t>2015-06_2015-11</t>
+  </si>
+  <si>
     <t>18-03-29_20-21</t>
   </si>
   <si>
@@ -931,6 +944,48 @@
     <t>18-05-25_17-58</t>
   </si>
   <si>
+    <t>~2859</t>
+  </si>
+  <si>
+    <t>18-08-23_11-25</t>
+  </si>
+  <si>
+    <t>18-08-31_15-13_-2859</t>
+  </si>
+  <si>
+    <t>18-09-02_20-56</t>
+  </si>
+  <si>
+    <t>Same everything, just test</t>
+  </si>
+  <si>
+    <t>~6990</t>
+  </si>
+  <si>
+    <t>18-08-24_13-42</t>
+  </si>
+  <si>
+    <t>~7951</t>
+  </si>
+  <si>
+    <t>18-08-24_22-49</t>
+  </si>
+  <si>
+    <t>18-08-31_13-54</t>
+  </si>
+  <si>
+    <t>~3413</t>
+  </si>
+  <si>
+    <t>18-08-25_15-42</t>
+  </si>
+  <si>
+    <t>~8292</t>
+  </si>
+  <si>
+    <t>18-08-26_16-05</t>
+  </si>
+  <si>
     <t>05-06</t>
   </si>
   <si>
@@ -959,6 +1014,414 @@
   </si>
   <si>
     <t>Running without normalizing</t>
+  </si>
+  <si>
+    <t>08-24</t>
+  </si>
+  <si>
+    <t>Running experiments with houses in training and other houses in testing</t>
+  </si>
+  <si>
+    <t>Type of exp</t>
+  </si>
+  <si>
+    <t>Date split</t>
+  </si>
+  <si>
+    <t>Date experiment (model taken)</t>
+  </si>
+  <si>
+    <t>New training</t>
+  </si>
+  <si>
+    <t>MAE (test)</t>
+  </si>
+  <si>
+    <t>“Wrong reported”</t>
+  </si>
+  <si>
+    <t>Date reproduced (test)</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Pie</t>
+  </si>
+  <si>
+    <t>Reported results</t>
+  </si>
+  <si>
+    <t>18-08-25_19-10</t>
+  </si>
+  <si>
+    <t>All 2015 according to output file</t>
+  </si>
+  <si>
+    <t>Same split new train</t>
+  </si>
+  <si>
+    <t>18-06-14_11-06 (hyperparams)</t>
+  </si>
+  <si>
+    <t>18-08-28_15-29</t>
+  </si>
+  <si>
+    <t>18-08-28_23-56</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Wrong size in training but same file, so fine</t>
+  </si>
+  <si>
+    <t>Dibujar</t>
+  </si>
+  <si>
+    <t>Distribucion parecida en pi</t>
+  </si>
+  <si>
+    <t>New split new train</t>
+  </si>
+  <si>
+    <t>18-08-27_20-23 (new)</t>
+  </si>
+  <si>
+    <t>18-08-27_20-22</t>
+  </si>
+  <si>
+    <t>18-08-28_11-21</t>
+  </si>
+  <si>
+    <t>Spiedie. Wrong size, try old size (all 2015)</t>
+  </si>
+  <si>
+    <t>18-09-01_14-25 (new)</t>
+  </si>
+  <si>
+    <t>18-09-01_14-25</t>
+  </si>
+  <si>
+    <t>18-09-02_12-15</t>
+  </si>
+  <si>
+    <t>kangchen. Correct size</t>
+  </si>
+  <si>
+    <t>No dibujar</t>
+  </si>
+  <si>
+    <t>18-06-12_19-34</t>
+  </si>
+  <si>
+    <t>18-08-25_19-29</t>
+  </si>
+  <si>
+    <t>There is another split with date 18-06-11_19-48</t>
+  </si>
+  <si>
+    <t>Same split1 new train</t>
+  </si>
+  <si>
+    <t>18-06-14_10-53 (hyperparams)</t>
+  </si>
+  <si>
+    <t>18-08-28_20-55</t>
+  </si>
+  <si>
+    <t>18-08-29_09-14</t>
+  </si>
+  <si>
+    <t>18-08-25_19-33</t>
+  </si>
+  <si>
+    <t>Same split2 new train</t>
+  </si>
+  <si>
+    <t>18-08-26_15-57 (new)</t>
+  </si>
+  <si>
+    <t>18-08-25_15-57</t>
+  </si>
+  <si>
+    <t>18-08-27_11-47</t>
+  </si>
+  <si>
+    <t>Training again (new split)</t>
+  </si>
+  <si>
+    <t>18-08-26_15-57</t>
+  </si>
+  <si>
+    <t>18-08-28_14-34</t>
+  </si>
+  <si>
+    <t>Size of split file is half the other. Now correct LR</t>
+  </si>
+  <si>
+    <t>18-08-28_15-01 (new)</t>
+  </si>
+  <si>
+    <t>18-08-28_15-00</t>
+  </si>
+  <si>
+    <t>18-08-29_11-04</t>
+  </si>
+  <si>
+    <t>Spiedie, correct size</t>
+  </si>
+  <si>
+    <t>18-06-12_10-23</t>
+  </si>
+  <si>
+    <t>18-08-25_19-58</t>
+  </si>
+  <si>
+    <t>New split?? 18-06-25_19-38</t>
+  </si>
+  <si>
+    <t>18-06-13_10-25 (hyperparams)</t>
+  </si>
+  <si>
+    <t>18-08-25_20-07</t>
+  </si>
+  <si>
+    <t>18-08-26_15-41</t>
+  </si>
+  <si>
+    <t>Training again. When testing I tried with clipping and no clipping (round negative to 0) and it gave the difference 11 vs 15</t>
+  </si>
+  <si>
+    <t>18-08-26_15-43</t>
+  </si>
+  <si>
+    <t>18-08-28_15-15 (new)</t>
+  </si>
+  <si>
+    <t>18-08-28_15-15</t>
+  </si>
+  <si>
+    <t>18-08-30_01-32</t>
+  </si>
+  <si>
+    <t>Correct size</t>
+  </si>
+  <si>
+    <t>Distribucion parecida en pie pero un poquito distinta en azul</t>
+  </si>
+  <si>
+    <t>18-08-25_20-17</t>
+  </si>
+  <si>
+    <t>All 2015 according to output file. Period 6</t>
+  </si>
+  <si>
+    <t>18-06-14_11-18 (hyperparams)</t>
+  </si>
+  <si>
+    <t>18-08-29_10-12</t>
+  </si>
+  <si>
+    <t>18-08-30_00-39</t>
+  </si>
+  <si>
+    <t>No tan parecida pero % m[as parecidos</t>
+  </si>
+  <si>
+    <t>18-08-30_00-42</t>
+  </si>
+  <si>
+    <t>18-08-30_16-36</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>18-08-30_16-50</t>
+  </si>
+  <si>
+    <t>18-08-31_10-55</t>
+  </si>
+  <si>
+    <t>Huasca</t>
+  </si>
+  <si>
+    <t>18-08-27_21-08 (new 1)</t>
+  </si>
+  <si>
+    <t>18-08-27_21-07</t>
+  </si>
+  <si>
+    <t>18-08-28_12-27</t>
+  </si>
+  <si>
+    <t>Learning rate change was different. Half size file</t>
+  </si>
+  <si>
+    <t>18-08-28_12-35</t>
+  </si>
+  <si>
+    <t>18-08-29_00-04</t>
+  </si>
+  <si>
+    <t>0: 0.01, 40:0.001. Still with half size file</t>
+  </si>
+  <si>
+    <t>18-08-29_14-47 (new 2)</t>
+  </si>
+  <si>
+    <t>18-08-29_14-46</t>
+  </si>
+  <si>
+    <t>18-08-30_11-05</t>
+  </si>
+  <si>
+    <t>Correct size, correct LR</t>
+  </si>
+  <si>
+    <t>18-08-30_11-22 (new 3)</t>
+  </si>
+  <si>
+    <t>18-08-30_11-22</t>
+  </si>
+  <si>
+    <t>18-08-31_11-14</t>
+  </si>
+  <si>
+    <t>18-08-30_20-27</t>
+  </si>
+  <si>
+    <t>18-08-31_18-04</t>
+  </si>
+  <si>
+    <t>Correct size, all 2015. Sched-samp k 20</t>
+  </si>
+  <si>
+    <t>18-08-30_20-27 (hyperparams)</t>
+  </si>
+  <si>
+    <t>18-09-01_14-06</t>
+  </si>
+  <si>
+    <t>18-09-02_12-26</t>
+  </si>
+  <si>
+    <t>Sched-samp k 20 -spiedie 3312</t>
+  </si>
+  <si>
+    <t>18-08-31_17-35</t>
+  </si>
+  <si>
+    <t>18-09-02_12-52</t>
+  </si>
+  <si>
+    <t>All 2015. Epochs 300</t>
+  </si>
+  <si>
+    <t>13-17 62 intermediate</t>
+  </si>
+  <si>
+    <t>18-08-31_17-50</t>
+  </si>
+  <si>
+    <t>18-09-02_12-56</t>
+  </si>
+  <si>
+    <t>Epochs 300 Lr 0-40-100</t>
+  </si>
+  <si>
+    <t>13-22 48 intermediate</t>
+  </si>
+  <si>
+    <t>18-08-30_20-48 (new 4)</t>
+  </si>
+  <si>
+    <t>18-08-30_20-48</t>
+  </si>
+  <si>
+    <t>18-08-31_11-20</t>
+  </si>
+  <si>
+    <t>kangchen. Correct size correct LR</t>
+  </si>
+  <si>
+    <t>No tan parecida</t>
+  </si>
+  <si>
+    <t>18-08-25_20-25</t>
+  </si>
+  <si>
+    <t>18-06-14_21-41 (hyperparams)</t>
+  </si>
+  <si>
+    <t>18-08-29_10-20</t>
+  </si>
+  <si>
+    <t>18-08-30_00-44</t>
+  </si>
+  <si>
+    <t>18-08-30_14-44</t>
+  </si>
+  <si>
+    <t>18-08-27_21-40 (new)</t>
+  </si>
+  <si>
+    <t>18-08-27_21-39</t>
+  </si>
+  <si>
+    <t>18-08-28_11-58</t>
+  </si>
+  <si>
+    <t>LR 0-100 (wrong). Wrong size in training</t>
+  </si>
+  <si>
+    <t>18-08-27_21-40</t>
+  </si>
+  <si>
+    <t>18-08-28_13-25</t>
+  </si>
+  <si>
+    <t>18-08-29_14-23</t>
+  </si>
+  <si>
+    <t>Correct LR 0-40. Wrong size</t>
+  </si>
+  <si>
+    <t>18-08-29_14-39 (new)</t>
+  </si>
+  <si>
+    <t>18-08-29_14-38</t>
+  </si>
+  <si>
+    <t>18-08-30_11-12</t>
+  </si>
+  <si>
+    <t>Correct LR and correct size</t>
+  </si>
+  <si>
+    <t>18-08-30_11-19 (new)</t>
+  </si>
+  <si>
+    <t>18-08-30_11-19</t>
+  </si>
+  <si>
+    <t>18-08-31_12-56</t>
+  </si>
+  <si>
+    <t>spiedie. Correct size</t>
+  </si>
+  <si>
+    <t>18-08-31_11-45</t>
+  </si>
+  <si>
+    <t>18-09-01_12-46</t>
+  </si>
+  <si>
+    <t>kangchen</t>
+  </si>
+  <si>
+    <t>Algo parecido</t>
   </si>
 </sst>
 </file>
@@ -975,7 +1438,7 @@
     <numFmt numFmtId="170" formatCode="#,##0.000"/>
     <numFmt numFmtId="171" formatCode="#,##0.000;[RED]\-#,##0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1000,6 +1463,35 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF009900"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <strike val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <strike val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1037,12 +1529,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -1071,7 +1570,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1196,8 +1695,72 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1220,7 +1783,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF009900"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -1272,6 +1835,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1279,7 +1846,7 @@
   </sheetPr>
   <dimension ref="B1:Y13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -2138,10 +2705,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ213"/>
+  <dimension ref="A1:AK206"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q128" activeCellId="0" sqref="Q128"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A122" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q203" activeCellId="0" sqref="Q203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -7923,35 +8490,20 @@
       <c r="P94" s="0" t="n">
         <v>44</v>
       </c>
+      <c r="Q94" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK94" s="0" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="0" t="n">
-        <v>3413</v>
-      </c>
-      <c r="C95" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D95" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="F95" s="3" t="n">
-        <v>-2411.227</v>
-      </c>
-      <c r="G95" s="5" t="n">
-        <v>0.304638</v>
-      </c>
-      <c r="H95" s="0" t="n">
-        <v>0.972</v>
-      </c>
-      <c r="I95" s="13" t="n">
-        <v>0.268</v>
-      </c>
-      <c r="Q95" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="R95" s="0" t="s">
-        <v>120</v>
-      </c>
+      <c r="F95" s="3"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="11"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="n">
@@ -7964,19 +8516,19 @@
         <v>8</v>
       </c>
       <c r="F96" s="3" t="n">
-        <v>-2453.397018</v>
+        <v>-2411.227</v>
       </c>
       <c r="G96" s="5" t="n">
-        <v>0.317707</v>
+        <v>0.304638</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>1.182</v>
-      </c>
-      <c r="I96" s="0" t="n">
-        <v>0.349</v>
+        <v>0.972</v>
+      </c>
+      <c r="I96" s="13" t="n">
+        <v>0.268</v>
       </c>
       <c r="Q96" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="R96" s="0" t="s">
         <v>120</v>
@@ -7987,30 +8539,28 @@
         <v>3413</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F97" s="3" t="n">
-        <v>-2825.398533</v>
+        <v>-2453.397018</v>
       </c>
       <c r="G97" s="5" t="n">
-        <v>0.147856</v>
-      </c>
-      <c r="H97" s="6" t="n">
-        <v>1.103625</v>
-      </c>
-      <c r="I97" s="6" t="n">
-        <v>0.292875</v>
-      </c>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
+        <v>0.317707</v>
+      </c>
+      <c r="H97" s="0" t="n">
+        <v>1.182</v>
+      </c>
+      <c r="I97" s="0" t="n">
+        <v>0.349</v>
+      </c>
       <c r="Q97" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R97" s="0" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8018,73 +8568,30 @@
         <v>3413</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F98" s="3" t="n">
-        <v>-2063</v>
+        <v>-2825.398533</v>
       </c>
       <c r="G98" s="5" t="n">
-        <v>0.44</v>
+        <v>0.147856</v>
       </c>
       <c r="H98" s="6" t="n">
-        <v>1.35</v>
+        <v>1.103625</v>
       </c>
       <c r="I98" s="6" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="J98" s="0" t="n">
-        <v>-2209</v>
-      </c>
-      <c r="K98" s="0" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="L98" s="0" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="M98" s="6" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="N98" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="O98" s="0" t="n">
-        <v>580</v>
-      </c>
-      <c r="P98" s="0" t="n">
-        <v>104</v>
-      </c>
+        <v>0.292875</v>
+      </c>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
       <c r="Q98" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R98" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="S98" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T98" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="U98" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="V98" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="W98" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="X98" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y98" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z98" s="0" t="n">
-        <v>200</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8097,47 +8604,44 @@
       <c r="D99" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E99" s="0" t="n">
-        <v>0.001</v>
-      </c>
       <c r="F99" s="3" t="n">
-        <v>-1538</v>
+        <v>-2063</v>
       </c>
       <c r="G99" s="5" t="n">
-        <v>1.15</v>
+        <v>0.44</v>
       </c>
       <c r="H99" s="6" t="n">
-        <v>1.435</v>
+        <v>1.35</v>
       </c>
       <c r="I99" s="6" t="n">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="J99" s="0" t="n">
-        <v>-1865</v>
+        <v>-2209</v>
       </c>
       <c r="K99" s="0" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="L99" s="0" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="M99" s="6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="N99" s="11" t="n">
-        <v>0.32</v>
+        <v>0.77</v>
+      </c>
+      <c r="N99" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="O99" s="0" t="n">
-        <v>92</v>
+        <v>580</v>
       </c>
       <c r="P99" s="0" t="n">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="Q99" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="R99" s="0" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="S99" s="0" t="n">
         <v>100</v>
@@ -8165,9 +8669,6 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>108</v>
-      </c>
       <c r="B100" s="0" t="n">
         <v>3413</v>
       </c>
@@ -8178,46 +8679,46 @@
         <v>8</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F100" s="3" t="n">
-        <v>-819</v>
+        <v>-1538</v>
       </c>
       <c r="G100" s="5" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="H100" s="6" t="n">
-        <v>1.27</v>
+        <v>1.435</v>
       </c>
       <c r="I100" s="6" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="J100" s="0" t="n">
-        <v>-1301</v>
+        <v>-1865</v>
       </c>
       <c r="K100" s="0" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="L100" s="0" t="n">
         <v>0.38</v>
       </c>
       <c r="M100" s="6" t="n">
-        <v>1.37</v>
+        <v>1.57</v>
       </c>
       <c r="N100" s="11" t="n">
         <v>0.32</v>
       </c>
       <c r="O100" s="0" t="n">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="P100" s="0" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Q100" s="0" t="s">
         <v>188</v>
       </c>
       <c r="R100" s="0" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="S100" s="0" t="n">
         <v>100</v>
@@ -8242,9 +8743,6 @@
       </c>
       <c r="Z100" s="0" t="n">
         <v>200</v>
-      </c>
-      <c r="AD100" s="0" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8264,40 +8762,40 @@
         <v>0.01</v>
       </c>
       <c r="F101" s="3" t="n">
-        <v>-1104</v>
+        <v>-819</v>
       </c>
       <c r="G101" s="5" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H101" s="6" t="n">
-        <v>1.59</v>
+        <v>1.27</v>
       </c>
       <c r="I101" s="6" t="n">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="J101" s="0" t="n">
-        <v>-1203</v>
+        <v>-1301</v>
       </c>
       <c r="K101" s="0" t="n">
-        <v>1.39</v>
+        <v>1.15</v>
       </c>
       <c r="L101" s="0" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="M101" s="6" t="n">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="N101" s="11" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="O101" s="0" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="P101" s="0" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q101" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="R101" s="0" t="s">
         <v>171</v>
@@ -8347,40 +8845,40 @@
         <v>0.01</v>
       </c>
       <c r="F102" s="3" t="n">
-        <v>-376</v>
+        <v>-1104</v>
       </c>
       <c r="G102" s="5" t="n">
-        <v>0.07</v>
+        <v>0.02</v>
       </c>
       <c r="H102" s="6" t="n">
-        <v>1.3893</v>
+        <v>1.59</v>
       </c>
       <c r="I102" s="6" t="n">
-        <v>0.538</v>
+        <v>0.45</v>
       </c>
       <c r="J102" s="0" t="n">
-        <v>-1381</v>
+        <v>-1203</v>
       </c>
       <c r="K102" s="0" t="n">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="L102" s="0" t="n">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
       <c r="M102" s="6" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="N102" s="11" t="n">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="O102" s="0" t="n">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="P102" s="0" t="n">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="Q102" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R102" s="0" t="s">
         <v>171</v>
@@ -8430,40 +8928,40 @@
         <v>0.01</v>
       </c>
       <c r="F103" s="3" t="n">
-        <v>-1822</v>
+        <v>-376</v>
       </c>
       <c r="G103" s="5" t="n">
-        <v>0.01</v>
+        <v>0.07</v>
       </c>
       <c r="H103" s="6" t="n">
-        <v>0.102</v>
+        <v>1.3893</v>
       </c>
       <c r="I103" s="6" t="n">
-        <v>0.074</v>
+        <v>0.538</v>
       </c>
       <c r="J103" s="0" t="n">
-        <v>-1822</v>
+        <v>-1381</v>
       </c>
       <c r="K103" s="0" t="n">
-        <v>0.09</v>
+        <v>1.17</v>
       </c>
       <c r="L103" s="0" t="n">
-        <v>0.074</v>
+        <v>0.36</v>
       </c>
       <c r="M103" s="6" t="n">
-        <v>0.102</v>
+        <v>1.44</v>
       </c>
       <c r="N103" s="11" t="n">
-        <v>0.074</v>
+        <v>0.45</v>
       </c>
       <c r="O103" s="0" t="n">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="P103" s="0" t="n">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="Q103" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R103" s="0" t="s">
         <v>171</v>
@@ -8492,11 +8990,8 @@
       <c r="Z103" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="AA103" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB103" s="0" t="n">
-        <v>20</v>
+      <c r="AD103" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8513,46 +9008,46 @@
         <v>8</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="F104" s="3" t="n">
-        <v>-1889</v>
+        <v>-1822</v>
       </c>
       <c r="G104" s="5" t="n">
-        <v>2.43</v>
+        <v>0.01</v>
       </c>
       <c r="H104" s="6" t="n">
-        <v>0.04</v>
+        <v>0.102</v>
       </c>
       <c r="I104" s="6" t="n">
-        <v>0.055</v>
+        <v>0.074</v>
       </c>
       <c r="J104" s="0" t="n">
-        <v>-1960</v>
+        <v>-1822</v>
       </c>
       <c r="K104" s="0" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="L104" s="0" t="n">
-        <v>0.05</v>
+        <v>0.074</v>
       </c>
       <c r="M104" s="6" t="n">
-        <v>0.043</v>
+        <v>0.102</v>
       </c>
       <c r="N104" s="11" t="n">
-        <v>0.054</v>
+        <v>0.074</v>
       </c>
       <c r="O104" s="0" t="n">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="P104" s="0" t="n">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="Q104" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R104" s="0" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="S104" s="0" t="n">
         <v>100</v>
@@ -8587,7 +9082,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>3413</v>
@@ -8599,46 +9094,46 @@
         <v>8</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F105" s="3" t="n">
-        <v>-1328</v>
+        <v>-1889</v>
       </c>
       <c r="G105" s="5" t="n">
-        <v>0.07</v>
+        <v>2.43</v>
       </c>
       <c r="H105" s="6" t="n">
-        <v>1.409</v>
+        <v>0.04</v>
       </c>
       <c r="I105" s="6" t="n">
-        <v>0.362</v>
+        <v>0.055</v>
       </c>
       <c r="J105" s="0" t="n">
-        <v>-1595</v>
+        <v>-1960</v>
       </c>
       <c r="K105" s="0" t="n">
-        <v>1.27</v>
+        <v>0.04</v>
       </c>
       <c r="L105" s="0" t="n">
-        <v>0.33</v>
+        <v>0.05</v>
       </c>
       <c r="M105" s="6" t="n">
-        <v>1.4</v>
+        <v>0.043</v>
       </c>
       <c r="N105" s="11" t="n">
-        <v>0.34</v>
+        <v>0.054</v>
       </c>
       <c r="O105" s="0" t="n">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="P105" s="0" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="Q105" s="0" t="s">
         <v>194</v>
       </c>
       <c r="R105" s="0" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="S105" s="0" t="n">
         <v>100</v>
@@ -8664,8 +9159,11 @@
       <c r="Z105" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="AD105" s="0" t="s">
-        <v>163</v>
+      <c r="AA105" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB105" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8685,43 +9183,43 @@
         <v>0.01</v>
       </c>
       <c r="F106" s="3" t="n">
-        <v>-964</v>
+        <v>-1328</v>
       </c>
       <c r="G106" s="5" t="n">
-        <v>0</v>
+        <v>0.07</v>
       </c>
       <c r="H106" s="6" t="n">
-        <v>1.12</v>
+        <v>1.409</v>
       </c>
       <c r="I106" s="6" t="n">
-        <v>0.32</v>
+        <v>0.362</v>
       </c>
       <c r="J106" s="0" t="n">
-        <v>-1272</v>
+        <v>-1595</v>
       </c>
       <c r="K106" s="0" t="n">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="L106" s="0" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="M106" s="6" t="n">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="N106" s="11" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="O106" s="0" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="P106" s="0" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="Q106" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="R106" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="S106" s="0" t="n">
         <v>100</v>
@@ -8746,6 +9244,9 @@
       </c>
       <c r="Z106" s="0" t="n">
         <v>200</v>
+      </c>
+      <c r="AD106" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8756,58 +9257,58 @@
         <v>3413</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D107" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="F107" s="3" t="n">
-        <v>-1093</v>
+        <v>-964</v>
       </c>
       <c r="G107" s="5" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="H107" s="6" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="I107" s="6" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="J107" s="0" t="n">
-        <v>-1366</v>
+        <v>-1272</v>
       </c>
       <c r="K107" s="0" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="L107" s="13" t="n">
-        <v>0.3</v>
+        <v>1.12</v>
+      </c>
+      <c r="L107" s="0" t="n">
+        <v>0.32</v>
       </c>
       <c r="M107" s="6" t="n">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="N107" s="11" t="n">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="O107" s="0" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P107" s="0" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="Q107" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R107" s="0" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="S107" s="0" t="n">
         <v>100</v>
       </c>
       <c r="T107" s="0" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="U107" s="0" t="n">
         <v>500</v>
@@ -8845,40 +9346,40 @@
         <v>0.001</v>
       </c>
       <c r="F108" s="3" t="n">
-        <v>-854</v>
+        <v>-1093</v>
       </c>
       <c r="G108" s="5" t="n">
-        <v>1.82</v>
+        <v>0.84</v>
       </c>
       <c r="H108" s="6" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="I108" s="6" t="n">
-        <v>0.319</v>
+        <v>0.36</v>
       </c>
       <c r="J108" s="0" t="n">
-        <v>-1259</v>
+        <v>-1366</v>
       </c>
       <c r="K108" s="0" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="L108" s="0" t="n">
-        <v>0.286</v>
+        <v>1.08</v>
+      </c>
+      <c r="L108" s="13" t="n">
+        <v>0.3</v>
       </c>
       <c r="M108" s="6" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="N108" s="11" t="n">
         <v>0.38</v>
       </c>
       <c r="O108" s="0" t="n">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="P108" s="0" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="Q108" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="R108" s="0" t="s">
         <v>106</v>
@@ -8922,52 +9423,52 @@
         <v>8</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F109" s="3" t="n">
-        <v>-596</v>
-      </c>
-      <c r="G109" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H109" s="5" t="n">
-        <v>1.45</v>
+        <v>-854</v>
+      </c>
+      <c r="G109" s="5" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H109" s="6" t="n">
+        <v>1.05</v>
       </c>
       <c r="I109" s="6" t="n">
-        <v>0.42</v>
+        <v>0.319</v>
       </c>
       <c r="J109" s="0" t="n">
-        <v>-1173</v>
+        <v>-1259</v>
       </c>
       <c r="K109" s="0" t="n">
-        <v>1.26</v>
+        <v>1.03</v>
       </c>
       <c r="L109" s="0" t="n">
-        <v>0.34</v>
+        <v>0.286</v>
       </c>
       <c r="M109" s="6" t="n">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="N109" s="11" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="O109" s="0" t="n">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="P109" s="0" t="n">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="Q109" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="R109" s="0" t="s">
-        <v>199</v>
+        <v>106</v>
       </c>
       <c r="S109" s="0" t="n">
         <v>100</v>
       </c>
       <c r="T109" s="0" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="U109" s="0" t="n">
         <v>500</v>
@@ -8986,9 +9487,6 @@
       </c>
       <c r="Z109" s="0" t="n">
         <v>200</v>
-      </c>
-      <c r="AD109" s="0" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9008,43 +9506,43 @@
         <v>0.01</v>
       </c>
       <c r="F110" s="3" t="n">
-        <v>-1638</v>
+        <v>-596</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H110" s="5" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="I110" s="6" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J110" s="0" t="n">
+        <v>-1173</v>
+      </c>
+      <c r="K110" s="0" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="L110" s="0" t="n">
         <v>0.34</v>
       </c>
-      <c r="J110" s="0" t="n">
-        <v>-1638</v>
-      </c>
-      <c r="K110" s="0" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="L110" s="0" t="n">
-        <v>0.31</v>
-      </c>
       <c r="M110" s="6" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="N110" s="11" t="n">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
       <c r="O110" s="0" t="n">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="P110" s="0" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="Q110" s="0" t="s">
         <v>200</v>
       </c>
       <c r="R110" s="0" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="S110" s="0" t="n">
         <v>100</v>
@@ -9069,6 +9567,9 @@
       </c>
       <c r="Z110" s="0" t="n">
         <v>200</v>
+      </c>
+      <c r="AD110" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9088,43 +9589,43 @@
         <v>0.01</v>
       </c>
       <c r="F111" s="3" t="n">
-        <v>-1625</v>
+        <v>-1638</v>
       </c>
       <c r="G111" s="0" t="n">
         <v>0.01</v>
       </c>
       <c r="H111" s="5" t="n">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="I111" s="6" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="J111" s="0" t="n">
-        <v>-1625</v>
+        <v>-1638</v>
       </c>
       <c r="K111" s="0" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="L111" s="0" t="n">
         <v>0.31</v>
       </c>
       <c r="M111" s="6" t="n">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="N111" s="11" t="n">
-        <v>0.375</v>
+        <v>0.35</v>
       </c>
       <c r="O111" s="0" t="n">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="P111" s="0" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="Q111" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="R111" s="0" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="S111" s="0" t="n">
         <v>100</v>
@@ -9159,7 +9660,7 @@
         <v>3413</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>8</v>
@@ -9168,43 +9669,43 @@
         <v>0.01</v>
       </c>
       <c r="F112" s="3" t="n">
-        <v>-1807</v>
+        <v>-1625</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H112" s="5" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I112" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J112" s="0" t="n">
+        <v>-1625</v>
+      </c>
+      <c r="K112" s="0" t="n">
         <v>1.06</v>
       </c>
-      <c r="I112" s="9" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="J112" s="0" t="n">
-        <v>-1807</v>
-      </c>
-      <c r="K112" s="0" t="n">
-        <v>1.05</v>
-      </c>
       <c r="L112" s="0" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="M112" s="6" t="n">
-        <v>1.36</v>
+        <v>1.77</v>
       </c>
       <c r="N112" s="11" t="n">
-        <v>0.34</v>
+        <v>0.375</v>
       </c>
       <c r="O112" s="0" t="n">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="P112" s="0" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Q112" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="R112" s="0" t="s">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="S112" s="0" t="n">
         <v>100</v>
@@ -9229,9 +9730,6 @@
       </c>
       <c r="Z112" s="0" t="n">
         <v>200</v>
-      </c>
-      <c r="AA112" s="0" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9251,37 +9749,37 @@
         <v>0.01</v>
       </c>
       <c r="F113" s="3" t="n">
-        <v>-1957</v>
+        <v>-1807</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>0.74</v>
+        <v>0.1</v>
       </c>
       <c r="H113" s="5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I113" s="6" t="n">
-        <v>0.28</v>
+        <v>1.06</v>
+      </c>
+      <c r="I113" s="9" t="n">
+        <v>0.29</v>
       </c>
       <c r="J113" s="0" t="n">
-        <v>-1957</v>
+        <v>-1807</v>
       </c>
       <c r="K113" s="0" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="L113" s="0" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="M113" s="6" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="N113" s="11" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="O113" s="0" t="n">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="P113" s="0" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="Q113" s="0" t="s">
         <v>204</v>
@@ -9318,168 +9816,232 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>166</v>
+      </c>
       <c r="B114" s="0" t="n">
         <v>3413</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="F114" s="3"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="6"/>
-      <c r="M114" s="6"/>
-      <c r="N114" s="11"/>
+      <c r="D114" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F114" s="3" t="n">
+        <v>-1957</v>
+      </c>
+      <c r="G114" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H114" s="5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I114" s="6" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J114" s="0" t="n">
+        <v>-1957</v>
+      </c>
+      <c r="K114" s="0" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L114" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M114" s="6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="N114" s="11" t="n">
+        <v>0.32</v>
+      </c>
       <c r="O114" s="0" t="n">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="P114" s="0" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q114" s="0" t="s">
         <v>206</v>
       </c>
+      <c r="R114" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="S114" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T114" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U114" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="V114" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="W114" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="X114" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y114" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z114" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA114" s="0" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="0" t="n">
+        <v>3413</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>200</v>
+      </c>
       <c r="F115" s="3"/>
       <c r="H115" s="5"/>
       <c r="I115" s="6"/>
       <c r="M115" s="6"/>
       <c r="N115" s="11"/>
       <c r="O115" s="0" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="P115" s="0" t="n">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="Q115" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="0" t="n">
-        <v>3413</v>
-      </c>
       <c r="F116" s="3"/>
       <c r="H116" s="5"/>
       <c r="I116" s="6"/>
       <c r="M116" s="6"/>
       <c r="N116" s="11"/>
       <c r="O116" s="0" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="P116" s="0" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q116" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>177</v>
-      </c>
       <c r="B117" s="0" t="n">
         <v>3413</v>
       </c>
-      <c r="C117" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D117" s="0" t="n">
+      <c r="F117" s="3"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="6"/>
+      <c r="M117" s="6"/>
+      <c r="N117" s="11"/>
+      <c r="O117" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="P117" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q117" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>3413</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D118" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E117" s="0" t="n">
+      <c r="E118" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="F117" s="3" t="n">
+      <c r="F118" s="3" t="n">
         <v>-2813</v>
       </c>
-      <c r="G117" s="0" t="n">
+      <c r="G118" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="H117" s="5" t="n">
+      <c r="H118" s="5" t="n">
         <v>0.031</v>
       </c>
-      <c r="I117" s="6" t="n">
+      <c r="I118" s="6" t="n">
         <v>0.037</v>
       </c>
-      <c r="J117" s="0" t="n">
+      <c r="J118" s="0" t="n">
         <v>-2813</v>
       </c>
-      <c r="K117" s="0" t="n">
+      <c r="K118" s="0" t="n">
         <v>0.03</v>
       </c>
-      <c r="L117" s="0" t="n">
+      <c r="L118" s="0" t="n">
         <v>0.036</v>
       </c>
-      <c r="M117" s="6" t="n">
+      <c r="M118" s="6" t="n">
         <v>0.03</v>
       </c>
-      <c r="N117" s="11" t="n">
+      <c r="N118" s="11" t="n">
         <v>0.037</v>
       </c>
-      <c r="O117" s="0" t="n">
+      <c r="O118" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="P117" s="13" t="n">
+      <c r="P118" s="13" t="n">
         <v>37</v>
       </c>
-      <c r="Q117" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="R117" s="0" t="s">
+      <c r="Q118" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="R118" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="S117" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T117" s="0" t="n">
+      <c r="S118" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T118" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="U117" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="V117" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="W117" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="X117" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y117" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z117" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="AA117" s="0" t="n">
+      <c r="U118" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="V118" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="W118" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="X118" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y118" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z118" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA118" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="AB117" s="0" t="n">
+      <c r="AB118" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="AD117" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI117" s="0" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AJ117" s="0" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F118" s="3"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="6"/>
-      <c r="M118" s="6"/>
-      <c r="N118" s="11"/>
-      <c r="O118" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="P118" s="0" t="n">
-        <v>29</v>
+      <c r="AD118" s="0" t="s">
+        <v>212</v>
       </c>
       <c r="AI118" s="0" t="n">
         <v>0.91</v>
@@ -9488,59 +10050,23 @@
         <v>181</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="0" t="n">
-        <v>2859</v>
-      </c>
-      <c r="C120" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D120" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E120" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F120" s="3" t="n">
-        <v>-1290</v>
-      </c>
-      <c r="G120" s="5" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="H120" s="0" t="n">
-        <v>1.369</v>
-      </c>
-      <c r="I120" s="0" t="n">
-        <v>0.475</v>
-      </c>
-      <c r="J120" s="0" t="n">
-        <v>-1359</v>
-      </c>
-      <c r="K120" s="0" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="L120" s="0" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="M120" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N120" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O120" s="4"/>
-      <c r="P120" s="4"/>
-      <c r="Q120" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="R120" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="S120" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="T120" s="0" t="n">
-        <v>100</v>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F119" s="3"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="11"/>
+      <c r="O119" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="P119" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI119" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AJ119" s="0" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9548,7 +10074,7 @@
         <v>2859</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>8</v>
@@ -9557,25 +10083,25 @@
         <v>0.001</v>
       </c>
       <c r="F121" s="3" t="n">
-        <v>-2656.894335</v>
+        <v>-1290</v>
       </c>
       <c r="G121" s="5" t="n">
-        <v>0.654834</v>
+        <v>2.28</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>1.117</v>
+        <v>1.369</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>0.381</v>
+        <v>0.475</v>
       </c>
       <c r="J121" s="0" t="n">
-        <v>-2656</v>
+        <v>-1359</v>
       </c>
       <c r="K121" s="0" t="n">
-        <v>1.09</v>
+        <v>1.22</v>
       </c>
       <c r="L121" s="0" t="n">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="M121" s="2" t="s">
         <v>25</v>
@@ -9586,33 +10112,15 @@
       <c r="O121" s="4"/>
       <c r="P121" s="4"/>
       <c r="Q121" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="R121" s="0" t="s">
-        <v>212</v>
+        <v>124</v>
       </c>
       <c r="S121" s="0" t="n">
         <v>80</v>
       </c>
       <c r="T121" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U121" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="V121" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="W121" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="X121" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y121" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z121" s="0" t="n">
         <v>100</v>
       </c>
     </row>
@@ -9621,7 +10129,7 @@
         <v>2859</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="D122" s="0" t="n">
         <v>8</v>
@@ -9630,25 +10138,25 @@
         <v>0.001</v>
       </c>
       <c r="F122" s="3" t="n">
-        <v>-1779.692725</v>
+        <v>-2656.894335</v>
       </c>
       <c r="G122" s="5" t="n">
-        <v>0.610852</v>
+        <v>0.654834</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>1.116</v>
+        <v>1.117</v>
       </c>
       <c r="I122" s="0" t="n">
         <v>0.381</v>
       </c>
       <c r="J122" s="0" t="n">
-        <v>-2632</v>
+        <v>-2656</v>
       </c>
       <c r="K122" s="0" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="L122" s="0" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="M122" s="2" t="s">
         <v>25</v>
@@ -9659,10 +10167,10 @@
       <c r="O122" s="4"/>
       <c r="P122" s="4"/>
       <c r="Q122" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R122" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="S122" s="0" t="n">
         <v>80</v>
@@ -9694,7 +10202,7 @@
         <v>2859</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D123" s="0" t="n">
         <v>8</v>
@@ -9703,25 +10211,25 @@
         <v>0.001</v>
       </c>
       <c r="F123" s="3" t="n">
-        <v>-2723.376204</v>
+        <v>-1779.692725</v>
       </c>
       <c r="G123" s="5" t="n">
-        <v>0.83088</v>
-      </c>
-      <c r="H123" s="6" t="n">
-        <v>1.1435</v>
-      </c>
-      <c r="I123" s="6" t="n">
-        <v>0.38575</v>
+        <v>0.610852</v>
+      </c>
+      <c r="H123" s="0" t="n">
+        <v>1.116</v>
+      </c>
+      <c r="I123" s="0" t="n">
+        <v>0.381</v>
       </c>
       <c r="J123" s="0" t="n">
-        <v>-2792</v>
+        <v>-2632</v>
       </c>
       <c r="K123" s="0" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="L123" s="0" t="n">
-        <v>0.385</v>
+        <v>0.36</v>
       </c>
       <c r="M123" s="2" t="s">
         <v>25</v>
@@ -9732,7 +10240,7 @@
       <c r="O123" s="4"/>
       <c r="P123" s="4"/>
       <c r="Q123" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="R123" s="0" t="s">
         <v>215</v>
@@ -9767,7 +10275,7 @@
         <v>2859</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>8</v>
@@ -9776,25 +10284,25 @@
         <v>0.001</v>
       </c>
       <c r="F124" s="3" t="n">
-        <v>-2365.720856</v>
+        <v>-2723.376204</v>
       </c>
       <c r="G124" s="5" t="n">
-        <v>0.244103</v>
-      </c>
-      <c r="H124" s="0" t="n">
-        <v>1.355</v>
-      </c>
-      <c r="I124" s="0" t="n">
-        <v>0.377</v>
+        <v>0.83088</v>
+      </c>
+      <c r="H124" s="6" t="n">
+        <v>1.1435</v>
+      </c>
+      <c r="I124" s="6" t="n">
+        <v>0.38575</v>
       </c>
       <c r="J124" s="0" t="n">
-        <v>-2556</v>
+        <v>-2792</v>
       </c>
       <c r="K124" s="0" t="n">
-        <v>1.35</v>
+        <v>1.1</v>
       </c>
       <c r="L124" s="0" t="n">
-        <v>0.37</v>
+        <v>0.385</v>
       </c>
       <c r="M124" s="2" t="s">
         <v>25</v>
@@ -9805,10 +10313,10 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
       <c r="Q124" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="R124" s="0" t="s">
-        <v>57</v>
+        <v>218</v>
       </c>
       <c r="S124" s="0" t="n">
         <v>80</v>
@@ -9840,7 +10348,7 @@
         <v>2859</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D125" s="0" t="n">
         <v>8</v>
@@ -9849,25 +10357,25 @@
         <v>0.001</v>
       </c>
       <c r="F125" s="3" t="n">
-        <v>-2826.904563</v>
+        <v>-2365.720856</v>
       </c>
       <c r="G125" s="5" t="n">
-        <v>0.320818</v>
-      </c>
-      <c r="H125" s="6" t="n">
-        <v>0.92725</v>
-      </c>
-      <c r="I125" s="9" t="n">
-        <v>0.3245</v>
+        <v>0.244103</v>
+      </c>
+      <c r="H125" s="0" t="n">
+        <v>1.355</v>
+      </c>
+      <c r="I125" s="0" t="n">
+        <v>0.377</v>
       </c>
       <c r="J125" s="0" t="n">
-        <v>-2835</v>
+        <v>-2556</v>
       </c>
       <c r="K125" s="0" t="n">
-        <v>0.927</v>
+        <v>1.35</v>
       </c>
       <c r="L125" s="0" t="n">
-        <v>0.325</v>
+        <v>0.37</v>
       </c>
       <c r="M125" s="2" t="s">
         <v>25</v>
@@ -9878,7 +10386,7 @@
       <c r="O125" s="4"/>
       <c r="P125" s="4"/>
       <c r="Q125" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="R125" s="0" t="s">
         <v>57</v>
@@ -9913,7 +10421,7 @@
         <v>2859</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D126" s="0" t="n">
         <v>8</v>
@@ -9922,25 +10430,25 @@
         <v>0.001</v>
       </c>
       <c r="F126" s="3" t="n">
-        <v>-3501.459696</v>
+        <v>-2826.904563</v>
       </c>
       <c r="G126" s="5" t="n">
-        <v>0.295932</v>
+        <v>0.320818</v>
       </c>
       <c r="H126" s="6" t="n">
-        <v>1.1075</v>
-      </c>
-      <c r="I126" s="5" t="n">
-        <v>0.35125</v>
+        <v>0.92725</v>
+      </c>
+      <c r="I126" s="9" t="n">
+        <v>0.3245</v>
       </c>
       <c r="J126" s="0" t="n">
-        <v>-3638</v>
+        <v>-2835</v>
       </c>
       <c r="K126" s="0" t="n">
-        <v>0.94</v>
+        <v>0.927</v>
       </c>
       <c r="L126" s="0" t="n">
-        <v>0.33</v>
+        <v>0.325</v>
       </c>
       <c r="M126" s="2" t="s">
         <v>25</v>
@@ -9948,13 +10456,19 @@
       <c r="N126" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O126" s="22"/>
-      <c r="P126" s="22"/>
+      <c r="O126" s="4"/>
+      <c r="P126" s="4"/>
       <c r="Q126" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R126" s="0" t="s">
-        <v>219</v>
+        <v>57</v>
+      </c>
+      <c r="S126" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="T126" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="U126" s="0" t="n">
         <v>500</v>
@@ -9980,34 +10494,34 @@
         <v>2859</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>2</v>
+        <v>400</v>
       </c>
       <c r="D127" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F127" s="3" t="n">
-        <v>-197</v>
-      </c>
-      <c r="G127" s="0" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="H127" s="5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="I127" s="6" t="n">
-        <v>0.55</v>
+        <v>-3501.459696</v>
+      </c>
+      <c r="G127" s="5" t="n">
+        <v>0.295932</v>
+      </c>
+      <c r="H127" s="6" t="n">
+        <v>1.1075</v>
+      </c>
+      <c r="I127" s="5" t="n">
+        <v>0.35125</v>
       </c>
       <c r="J127" s="0" t="n">
-        <v>-197</v>
+        <v>-3638</v>
       </c>
       <c r="K127" s="0" t="n">
-        <v>1.44</v>
+        <v>0.94</v>
       </c>
       <c r="L127" s="0" t="n">
-        <v>0.55</v>
+        <v>0.33</v>
       </c>
       <c r="M127" s="2" t="s">
         <v>25</v>
@@ -10015,23 +10529,13 @@
       <c r="N127" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O127" s="22" t="n">
-        <v>46</v>
-      </c>
-      <c r="P127" s="22" t="n">
-        <v>57</v>
-      </c>
+      <c r="O127" s="22"/>
+      <c r="P127" s="22"/>
       <c r="Q127" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="R127" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="S127" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="T127" s="0" t="n">
-        <v>100</v>
+        <v>222</v>
       </c>
       <c r="U127" s="0" t="n">
         <v>500</v>
@@ -10049,7 +10553,7 @@
         <v>200</v>
       </c>
       <c r="Z127" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10057,58 +10561,58 @@
         <v>2859</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="D128" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="F128" s="3" t="n">
-        <v>-2688</v>
+        <v>-197</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="H128" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I128" s="5" t="n">
         <v>0.35</v>
       </c>
+      <c r="H128" s="5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I128" s="6" t="n">
+        <v>0.55</v>
+      </c>
       <c r="J128" s="0" t="n">
-        <v>-2972</v>
+        <v>-197</v>
       </c>
       <c r="K128" s="0" t="n">
-        <v>1.1</v>
+        <v>1.44</v>
       </c>
       <c r="L128" s="0" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="M128" s="2" t="n">
-        <v>0.63</v>
+        <v>0.55</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="N128" s="2" t="s">
         <v>25</v>
       </c>
       <c r="O128" s="22" t="n">
-        <v>494</v>
+        <v>46</v>
       </c>
       <c r="P128" s="22" t="n">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="Q128" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="R128" s="0" t="s">
-        <v>222</v>
+        <v>100</v>
       </c>
       <c r="S128" s="0" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="T128" s="0" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="U128" s="0" t="n">
         <v>500</v>
@@ -10130,14 +10634,11 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
-        <v>108</v>
-      </c>
       <c r="B129" s="0" t="n">
         <v>2859</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D129" s="0" t="n">
         <v>8</v>
@@ -10146,43 +10647,43 @@
         <v>0.001</v>
       </c>
       <c r="F129" s="3" t="n">
-        <v>-1737</v>
+        <v>-2688</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>17.5</v>
+        <v>0.79</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>1.45</v>
+        <v>1.1</v>
       </c>
       <c r="I129" s="5" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="J129" s="0" t="n">
-        <v>-2043</v>
+        <v>-2972</v>
       </c>
       <c r="K129" s="0" t="n">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="L129" s="0" t="n">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
       <c r="M129" s="2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N129" s="2" t="n">
-        <v>0.31</v>
+        <v>0.63</v>
+      </c>
+      <c r="N129" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="O129" s="22" t="n">
-        <v>33</v>
-      </c>
-      <c r="P129" s="23" t="n">
-        <v>31</v>
+        <v>494</v>
+      </c>
+      <c r="P129" s="22" t="n">
+        <v>106</v>
       </c>
       <c r="Q129" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="R129" s="0" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="S129" s="0" t="n">
         <v>100</v>
@@ -10217,52 +10718,52 @@
         <v>2859</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F130" s="3" t="n">
-        <v>-1373</v>
+        <v>-1737</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>1.19</v>
+        <v>1.45</v>
       </c>
       <c r="I130" s="5" t="n">
-        <v>0.37</v>
+        <v>0.43</v>
       </c>
       <c r="J130" s="0" t="n">
-        <v>-1888</v>
+        <v>-2043</v>
       </c>
       <c r="K130" s="0" t="n">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="L130" s="0" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M130" s="2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N130" s="2" t="n">
         <v>0.31</v>
       </c>
-      <c r="M130" s="2" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="N130" s="2" t="n">
-        <v>0.4</v>
-      </c>
       <c r="O130" s="22" t="n">
-        <v>44</v>
-      </c>
-      <c r="P130" s="22" t="n">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="P130" s="23" t="n">
+        <v>31</v>
       </c>
       <c r="Q130" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="R130" s="0" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="S130" s="0" t="n">
         <v>100</v>
@@ -10287,9 +10788,6 @@
       </c>
       <c r="Z130" s="0" t="n">
         <v>200</v>
-      </c>
-      <c r="AA130" s="0" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10300,52 +10798,52 @@
         <v>2859</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="F131" s="3" t="n">
-        <v>-1638</v>
+        <v>-1373</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>5.67</v>
+        <v>0</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>0.025</v>
+        <v>1.19</v>
       </c>
       <c r="I131" s="5" t="n">
-        <v>0.035</v>
+        <v>0.37</v>
       </c>
       <c r="J131" s="0" t="n">
-        <v>-1638</v>
+        <v>-1888</v>
       </c>
       <c r="K131" s="0" t="n">
-        <v>0.025</v>
+        <v>1.08</v>
       </c>
       <c r="L131" s="0" t="n">
-        <v>0.035</v>
+        <v>0.31</v>
       </c>
       <c r="M131" s="2" t="n">
-        <v>0.028</v>
+        <v>1.6</v>
       </c>
       <c r="N131" s="2" t="n">
-        <v>0.035</v>
+        <v>0.4</v>
       </c>
       <c r="O131" s="22" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="P131" s="22" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="Q131" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R131" s="0" t="s">
-        <v>106</v>
+        <v>228</v>
       </c>
       <c r="S131" s="0" t="n">
         <v>100</v>
@@ -10373,9 +10871,6 @@
       </c>
       <c r="AA131" s="0" t="n">
         <v>60</v>
-      </c>
-      <c r="AB131" s="0" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10395,43 +10890,43 @@
         <v>0.001</v>
       </c>
       <c r="F132" s="3" t="n">
-        <v>-2220</v>
+        <v>-1638</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>1.44</v>
+        <v>5.67</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>0.047</v>
+        <v>0.025</v>
       </c>
       <c r="I132" s="5" t="n">
-        <v>0.049</v>
+        <v>0.035</v>
       </c>
       <c r="J132" s="0" t="n">
-        <v>-2316</v>
+        <v>-1638</v>
       </c>
       <c r="K132" s="0" t="n">
-        <v>0.04</v>
+        <v>0.025</v>
       </c>
       <c r="L132" s="0" t="n">
-        <v>0.047</v>
+        <v>0.035</v>
       </c>
       <c r="M132" s="2" t="n">
-        <v>0.05</v>
+        <v>0.028</v>
       </c>
       <c r="N132" s="2" t="n">
-        <v>0.05</v>
+        <v>0.035</v>
       </c>
       <c r="O132" s="22" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="P132" s="22" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="Q132" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="R132" s="0" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="S132" s="0" t="n">
         <v>100</v>
@@ -10481,43 +10976,43 @@
         <v>0.001</v>
       </c>
       <c r="F133" s="3" t="n">
-        <v>-1810</v>
+        <v>-2220</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>0.038</v>
+        <v>0.047</v>
       </c>
       <c r="I133" s="5" t="n">
         <v>0.049</v>
       </c>
       <c r="J133" s="0" t="n">
-        <v>-2210</v>
+        <v>-2316</v>
       </c>
       <c r="K133" s="0" t="n">
-        <v>0.034</v>
+        <v>0.04</v>
       </c>
       <c r="L133" s="0" t="n">
-        <v>0.041</v>
+        <v>0.047</v>
       </c>
       <c r="M133" s="2" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="N133" s="2" t="n">
-        <v>0.053</v>
+        <v>0.05</v>
       </c>
       <c r="O133" s="22" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P133" s="22" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q133" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="R133" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="S133" s="0" t="n">
         <v>100</v>
@@ -10549,67 +11044,61 @@
       <c r="AB133" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="AE133" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="AF133" s="0" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>2859</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D134" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F134" s="3" t="n">
-        <v>-1348</v>
+        <v>-1810</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>1.19</v>
+        <v>0.038</v>
       </c>
       <c r="I134" s="5" t="n">
-        <v>0.37</v>
+        <v>0.049</v>
       </c>
       <c r="J134" s="0" t="n">
-        <v>-1518</v>
+        <v>-2210</v>
       </c>
       <c r="K134" s="0" t="n">
-        <v>1.19</v>
+        <v>0.034</v>
       </c>
       <c r="L134" s="0" t="n">
-        <v>0.35</v>
+        <v>0.041</v>
       </c>
       <c r="M134" s="2" t="n">
-        <v>1.34</v>
+        <v>0.045</v>
       </c>
       <c r="N134" s="2" t="n">
-        <v>0.36</v>
+        <v>0.053</v>
       </c>
       <c r="O134" s="22" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P134" s="22" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="Q134" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R134" s="0" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="S134" s="0" t="n">
         <v>100</v>
@@ -10637,6 +11126,15 @@
       </c>
       <c r="AA134" s="0" t="n">
         <v>60</v>
+      </c>
+      <c r="AB134" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE134" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF134" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10656,43 +11154,43 @@
         <v>0.01</v>
       </c>
       <c r="F135" s="3" t="n">
-        <v>-1964</v>
+        <v>-1348</v>
       </c>
       <c r="G135" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="I135" s="5" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="J135" s="0" t="n">
-        <v>-1964</v>
+        <v>-1518</v>
       </c>
       <c r="K135" s="0" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="L135" s="13" t="n">
-        <v>0.29</v>
+        <v>1.19</v>
+      </c>
+      <c r="L135" s="0" t="n">
+        <v>0.35</v>
       </c>
       <c r="M135" s="2" t="n">
-        <v>1.54</v>
+        <v>1.34</v>
       </c>
       <c r="N135" s="2" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="O135" s="22" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="P135" s="22" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q135" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="R135" s="0" t="s">
-        <v>232</v>
+        <v>171</v>
       </c>
       <c r="S135" s="0" t="n">
         <v>100</v>
@@ -10739,43 +11237,43 @@
         <v>0.01</v>
       </c>
       <c r="F136" s="3" t="n">
-        <v>-1854</v>
+        <v>-1964</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>1.49</v>
+        <v>1.24</v>
       </c>
       <c r="I136" s="5" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
       <c r="J136" s="0" t="n">
-        <v>-1854</v>
+        <v>-1964</v>
       </c>
       <c r="K136" s="0" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="L136" s="0" t="n">
-        <v>0.32</v>
+        <v>1.08</v>
+      </c>
+      <c r="L136" s="13" t="n">
+        <v>0.29</v>
       </c>
       <c r="M136" s="2" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="N136" s="2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="O136" s="22" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="P136" s="22" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q136" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="R136" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="S136" s="0" t="n">
         <v>100</v>
@@ -10813,7 +11311,7 @@
         <v>2859</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D137" s="0" t="n">
         <v>8</v>
@@ -10822,43 +11320,43 @@
         <v>0.01</v>
       </c>
       <c r="F137" s="3" t="n">
-        <v>-1352</v>
+        <v>-1854</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>1.15</v>
+        <v>1.49</v>
       </c>
       <c r="I137" s="5" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="J137" s="0" t="n">
-        <v>-1552</v>
+        <v>-1854</v>
       </c>
       <c r="K137" s="0" t="n">
-        <v>0.92</v>
+        <v>1.13</v>
       </c>
       <c r="L137" s="0" t="n">
         <v>0.32</v>
       </c>
       <c r="M137" s="2" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="N137" s="2" t="n">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="O137" s="22" t="n">
+        <v>47</v>
+      </c>
+      <c r="P137" s="22" t="n">
         <v>42</v>
       </c>
-      <c r="P137" s="22" t="n">
-        <v>48</v>
-      </c>
       <c r="Q137" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="R137" s="0" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="S137" s="0" t="n">
         <v>100</v>
@@ -10902,46 +11400,46 @@
         <v>8</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="F138" s="3" t="n">
-        <v>-2202</v>
+        <v>-1352</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="I138" s="5" t="n">
-        <v>41</v>
+        <v>0.39</v>
       </c>
       <c r="J138" s="0" t="n">
-        <v>-2202</v>
+        <v>-1552</v>
       </c>
       <c r="K138" s="0" t="n">
-        <v>1.31</v>
+        <v>0.92</v>
       </c>
       <c r="L138" s="0" t="n">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
       <c r="M138" s="2" t="n">
-        <v>1.13</v>
+        <v>1.58</v>
       </c>
       <c r="N138" s="2" t="n">
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
       <c r="O138" s="22" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="P138" s="22" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q138" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="R138" s="0" t="s">
-        <v>237</v>
+        <v>171</v>
       </c>
       <c r="S138" s="0" t="n">
         <v>100</v>
@@ -10985,46 +11483,46 @@
         <v>8</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>0.0001</v>
+        <v>0.001</v>
       </c>
       <c r="F139" s="3" t="n">
-        <v>-1706</v>
+        <v>-2202</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>18.74</v>
+        <v>7.4</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>1.51</v>
+        <v>1.32</v>
       </c>
       <c r="I139" s="5" t="n">
-        <v>0.46</v>
+        <v>41</v>
       </c>
       <c r="J139" s="0" t="n">
-        <v>-1706</v>
+        <v>-2202</v>
       </c>
       <c r="K139" s="0" t="n">
-        <v>1.49</v>
+        <v>1.31</v>
       </c>
       <c r="L139" s="0" t="n">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="M139" s="2" t="n">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="N139" s="2" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="O139" s="22" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="P139" s="22" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Q139" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="R139" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="S139" s="0" t="n">
         <v>100</v>
@@ -11062,52 +11560,52 @@
         <v>2859</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D140" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>0.01</v>
+        <v>0.0001</v>
       </c>
       <c r="F140" s="3" t="n">
-        <v>-1996</v>
+        <v>-1706</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>0</v>
+        <v>18.74</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>1.1</v>
+        <v>1.51</v>
       </c>
       <c r="I140" s="5" t="n">
-        <v>0.34</v>
+        <v>0.46</v>
       </c>
       <c r="J140" s="0" t="n">
-        <v>-1996</v>
+        <v>-1706</v>
       </c>
       <c r="K140" s="0" t="n">
-        <v>1.1</v>
+        <v>1.49</v>
       </c>
       <c r="L140" s="0" t="n">
-        <v>0.34</v>
+        <v>0.46</v>
       </c>
       <c r="M140" s="2" t="n">
-        <v>1.52</v>
+        <v>1.24</v>
       </c>
       <c r="N140" s="2" t="n">
         <v>0.34</v>
       </c>
       <c r="O140" s="22" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P140" s="22" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q140" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="R140" s="0" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="S140" s="0" t="n">
         <v>100</v>
@@ -11154,49 +11652,49 @@
         <v>0.01</v>
       </c>
       <c r="F141" s="3" t="n">
-        <v>-1912</v>
+        <v>-1996</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="I141" s="5" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="J141" s="0" t="n">
-        <v>-2015</v>
+        <v>-1996</v>
       </c>
       <c r="K141" s="0" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="L141" s="0" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="M141" s="2" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="N141" s="2" t="n">
         <v>0.34</v>
       </c>
       <c r="O141" s="22" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P141" s="22" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q141" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="R141" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="S141" s="20" t="n">
+        <v>228</v>
+      </c>
+      <c r="S141" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T141" s="0" t="n">
         <v>150</v>
-      </c>
-      <c r="T141" s="20" t="n">
-        <v>200</v>
       </c>
       <c r="U141" s="0" t="n">
         <v>500</v>
@@ -11228,7 +11726,7 @@
         <v>2859</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>8</v>
@@ -11237,49 +11735,49 @@
         <v>0.01</v>
       </c>
       <c r="F142" s="3" t="n">
-        <v>-1894</v>
+        <v>-1912</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="I142" s="5" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="J142" s="0" t="n">
-        <v>-1941</v>
+        <v>-2015</v>
       </c>
       <c r="K142" s="0" t="n">
         <v>1.14</v>
       </c>
       <c r="L142" s="0" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="M142" s="2" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="N142" s="2" t="n">
         <v>0.34</v>
       </c>
       <c r="O142" s="22" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="P142" s="22" t="n">
         <v>36</v>
       </c>
       <c r="Q142" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="R142" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="S142" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T142" s="0" t="n">
+        <v>228</v>
+      </c>
+      <c r="S142" s="20" t="n">
         <v>150</v>
+      </c>
+      <c r="T142" s="20" t="n">
+        <v>200</v>
       </c>
       <c r="U142" s="0" t="n">
         <v>500</v>
@@ -11311,7 +11809,7 @@
         <v>2859</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>8</v>
@@ -11320,43 +11818,43 @@
         <v>0.01</v>
       </c>
       <c r="F143" s="3" t="n">
-        <v>-1544</v>
+        <v>-1894</v>
       </c>
       <c r="G143" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>0.93</v>
+        <v>1.14</v>
       </c>
       <c r="I143" s="5" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="J143" s="0" t="n">
-        <v>-2017</v>
-      </c>
-      <c r="K143" s="13" t="n">
-        <v>0.82</v>
+        <v>-1941</v>
+      </c>
+      <c r="K143" s="0" t="n">
+        <v>1.14</v>
       </c>
       <c r="L143" s="0" t="n">
         <v>0.33</v>
       </c>
       <c r="M143" s="2" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="N143" s="2" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="O143" s="22" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="P143" s="22" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="Q143" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="R143" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="S143" s="0" t="n">
         <v>100</v>
@@ -11388,58 +11886,58 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>2859</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D144" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="F144" s="3" t="n">
-        <v>-2976</v>
+        <v>-1544</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>0.0054</v>
+        <v>0.93</v>
       </c>
       <c r="I144" s="5" t="n">
-        <v>0.146</v>
+        <v>0.33</v>
       </c>
       <c r="J144" s="0" t="n">
-        <v>-2976</v>
-      </c>
-      <c r="K144" s="0" t="n">
-        <v>0.0045</v>
+        <v>-2017</v>
+      </c>
+      <c r="K144" s="13" t="n">
+        <v>0.82</v>
       </c>
       <c r="L144" s="0" t="n">
-        <v>0.0144</v>
+        <v>0.33</v>
       </c>
       <c r="M144" s="2" t="n">
-        <v>0.005</v>
+        <v>1.6</v>
       </c>
       <c r="N144" s="2" t="n">
-        <v>0.015</v>
+        <v>0.4</v>
       </c>
       <c r="O144" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="P144" s="23" t="n">
-        <v>15</v>
+        <v>46</v>
+      </c>
+      <c r="P144" s="22" t="n">
+        <v>49</v>
       </c>
       <c r="Q144" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="R144" s="0" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="S144" s="0" t="n">
         <v>100</v>
@@ -11467,15 +11965,6 @@
       </c>
       <c r="AA144" s="0" t="n">
         <v>60</v>
-      </c>
-      <c r="AB144" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI144" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AJ144" s="0" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11486,7 +11975,7 @@
         <v>2859</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>8</v>
@@ -11495,129 +11984,172 @@
         <v>0.001</v>
       </c>
       <c r="F145" s="3" t="n">
+        <v>-2976</v>
+      </c>
+      <c r="G145" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H145" s="0" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="I145" s="5" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="J145" s="0" t="n">
+        <v>-2976</v>
+      </c>
+      <c r="K145" s="0" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="L145" s="0" t="n">
+        <v>0.0144</v>
+      </c>
+      <c r="M145" s="2" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="N145" s="2" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="O145" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="P145" s="23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q145" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="R145" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="S145" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T145" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U145" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="V145" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="W145" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="X145" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y145" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z145" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA145" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB145" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI145" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AJ145" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B146" s="0" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F146" s="3" t="n">
         <v>-2953</v>
       </c>
-      <c r="G145" s="0" t="n">
+      <c r="G146" s="0" t="n">
         <v>3.23</v>
       </c>
-      <c r="H145" s="5" t="n">
+      <c r="H146" s="5" t="n">
         <v>0.0103</v>
       </c>
-      <c r="I145" s="5" t="n">
+      <c r="I146" s="5" t="n">
         <v>0.022</v>
       </c>
-      <c r="J145" s="0" t="n">
+      <c r="J146" s="0" t="n">
         <v>-2953</v>
       </c>
-      <c r="K145" s="24" t="n">
+      <c r="K146" s="24" t="n">
         <v>0.0099</v>
       </c>
-      <c r="L145" s="6" t="n">
+      <c r="L146" s="6" t="n">
         <v>0.022</v>
       </c>
-      <c r="M145" s="6" t="n">
+      <c r="M146" s="6" t="n">
         <v>0.011</v>
       </c>
-      <c r="N145" s="11" t="n">
+      <c r="N146" s="11" t="n">
         <v>0.023</v>
       </c>
-      <c r="O145" s="25" t="n">
+      <c r="O146" s="25" t="n">
         <v>11</v>
       </c>
-      <c r="P145" s="25" t="n">
+      <c r="P146" s="25" t="n">
         <v>23</v>
       </c>
-      <c r="Q145" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="R145" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="U145" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="V145" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="W145" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="X145" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y145" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z145" s="0" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F146" s="3"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
-      <c r="K146" s="5"/>
-      <c r="L146" s="5"/>
-      <c r="M146" s="6"/>
-      <c r="N146" s="11"/>
-      <c r="O146" s="14"/>
-      <c r="P146" s="14"/>
+      <c r="Q146" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="R146" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="U146" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="V146" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="W146" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="X146" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y146" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z146" s="0" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="0" t="n">
-        <v>6990</v>
-      </c>
-      <c r="C147" s="0" t="n">
-        <v>94</v>
-      </c>
-      <c r="D147" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E147" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F147" s="3" t="n">
-        <v>-1427</v>
-      </c>
-      <c r="G147" s="0" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="H147" s="0" t="n">
-        <v>1.559</v>
-      </c>
-      <c r="I147" s="0" t="n">
-        <v>0.549</v>
-      </c>
-      <c r="J147" s="0" t="n">
-        <v>-2502</v>
-      </c>
-      <c r="K147" s="13" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="L147" s="13" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="M147" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N147" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O147" s="4"/>
-      <c r="P147" s="4"/>
-      <c r="Q147" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="R147" s="0" t="s">
-        <v>57</v>
-      </c>
+      <c r="F147" s="3"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="5"/>
+      <c r="M147" s="6"/>
+      <c r="N147" s="11"/>
+      <c r="O147" s="14"/>
+      <c r="P147" s="14"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="0" t="n">
         <v>6990</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>8</v>
@@ -11626,25 +12158,25 @@
         <v>0.001</v>
       </c>
       <c r="F148" s="3" t="n">
-        <v>-2159.479627</v>
+        <v>-1427</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>0.385982</v>
-      </c>
-      <c r="H148" s="13" t="n">
-        <v>0.98</v>
+        <v>0.19</v>
+      </c>
+      <c r="H148" s="0" t="n">
+        <v>1.559</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>0.33</v>
+        <v>0.549</v>
       </c>
       <c r="J148" s="0" t="n">
-        <v>-2180</v>
-      </c>
-      <c r="K148" s="0" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="L148" s="0" t="n">
-        <v>0.33</v>
+        <v>-2502</v>
+      </c>
+      <c r="K148" s="13" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L148" s="13" t="n">
+        <v>0.28</v>
       </c>
       <c r="M148" s="2" t="s">
         <v>25</v>
@@ -11655,34 +12187,10 @@
       <c r="O148" s="4"/>
       <c r="P148" s="4"/>
       <c r="Q148" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="R148" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="S148" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="T148" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="U148" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="V148" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="W148" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="X148" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y148" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z148" s="0" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11690,7 +12198,7 @@
         <v>6990</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>8</v>
@@ -11699,25 +12207,25 @@
         <v>0.001</v>
       </c>
       <c r="F149" s="3" t="n">
-        <v>-2272.888117</v>
+        <v>-2159.479627</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>0.61709</v>
-      </c>
-      <c r="H149" s="6" t="n">
-        <v>1.091125</v>
-      </c>
-      <c r="I149" s="6" t="n">
-        <v>0.3375</v>
+        <v>0.385982</v>
+      </c>
+      <c r="H149" s="13" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I149" s="0" t="n">
+        <v>0.33</v>
       </c>
       <c r="J149" s="0" t="n">
-        <v>-2635</v>
+        <v>-2180</v>
       </c>
       <c r="K149" s="0" t="n">
-        <v>1.07</v>
+        <v>0.96</v>
       </c>
       <c r="L149" s="0" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="M149" s="2" t="s">
         <v>25</v>
@@ -11728,7 +12236,7 @@
       <c r="O149" s="4"/>
       <c r="P149" s="4"/>
       <c r="Q149" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="R149" s="0" t="s">
         <v>57</v>
@@ -11763,7 +12271,7 @@
         <v>6990</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>8</v>
@@ -11772,25 +12280,25 @@
         <v>0.001</v>
       </c>
       <c r="F150" s="3" t="n">
-        <v>-3359.000295</v>
+        <v>-2272.888117</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>0.617569</v>
+        <v>0.61709</v>
       </c>
       <c r="H150" s="6" t="n">
-        <v>1.10625</v>
+        <v>1.091125</v>
       </c>
       <c r="I150" s="6" t="n">
-        <v>0.30675</v>
+        <v>0.3375</v>
       </c>
       <c r="J150" s="0" t="n">
-        <v>-3435</v>
+        <v>-2635</v>
       </c>
       <c r="K150" s="0" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="L150" s="0" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="M150" s="2" t="s">
         <v>25</v>
@@ -11801,21 +12309,42 @@
       <c r="O150" s="4"/>
       <c r="P150" s="4"/>
       <c r="Q150" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="R150" s="0" t="s">
-        <v>219</v>
+        <v>57</v>
+      </c>
+      <c r="S150" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="T150" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="U150" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="V150" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="W150" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="X150" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y150" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z150" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
-        <v>108</v>
-      </c>
       <c r="B151" s="0" t="n">
         <v>6990</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D151" s="0" t="n">
         <v>8</v>
@@ -11824,74 +12353,45 @@
         <v>0.001</v>
       </c>
       <c r="F151" s="3" t="n">
-        <v>-2089</v>
+        <v>-3359.000295</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H151" s="9" t="n">
-        <v>1.3</v>
+        <v>0.617569</v>
+      </c>
+      <c r="H151" s="6" t="n">
+        <v>1.10625</v>
       </c>
       <c r="I151" s="6" t="n">
-        <v>0.4</v>
+        <v>0.30675</v>
       </c>
       <c r="J151" s="0" t="n">
-        <v>-2384</v>
+        <v>-3435</v>
       </c>
       <c r="K151" s="0" t="n">
-        <v>1.26</v>
+        <v>1.04</v>
       </c>
       <c r="L151" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="M151" s="2" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="N151" s="26" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="O151" s="4" t="n">
-        <v>818</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="M151" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N151" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O151" s="4"/>
       <c r="P151" s="4"/>
       <c r="Q151" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="R151" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="S151" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T151" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="U151" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="V151" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="W151" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="X151" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y151" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z151" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="AA151" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AC151" s="0" t="n">
-        <v>0.21</v>
+        <v>222</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>108</v>
+      </c>
       <c r="B152" s="0" t="n">
         <v>6990</v>
       </c>
@@ -11905,43 +12405,41 @@
         <v>0.001</v>
       </c>
       <c r="F152" s="3" t="n">
-        <v>-1531</v>
+        <v>-2089</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H152" s="6" t="n">
-        <v>1.538</v>
+        <v>0.6</v>
+      </c>
+      <c r="H152" s="9" t="n">
+        <v>1.3</v>
       </c>
       <c r="I152" s="6" t="n">
-        <v>0.469</v>
+        <v>0.4</v>
       </c>
       <c r="J152" s="0" t="n">
-        <v>-1907</v>
+        <v>-2384</v>
       </c>
       <c r="K152" s="0" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="L152" s="0" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="M152" s="2" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="N152" s="2" t="n">
-        <v>0.35</v>
+        <v>0.66</v>
+      </c>
+      <c r="N152" s="26" t="n">
+        <v>0.16</v>
       </c>
       <c r="O152" s="4" t="n">
-        <v>236</v>
-      </c>
-      <c r="P152" s="4" t="n">
-        <v>109</v>
-      </c>
+        <v>818</v>
+      </c>
+      <c r="P152" s="4"/>
       <c r="Q152" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="R152" s="0" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="S152" s="0" t="n">
         <v>100</v>
@@ -11967,67 +12465,70 @@
       <c r="Z152" s="0" t="n">
         <v>200</v>
       </c>
+      <c r="AA152" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC152" s="0" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
-        <v>108</v>
-      </c>
       <c r="B153" s="0" t="n">
         <v>6990</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F153" s="3" t="n">
-        <v>-694</v>
+        <v>-1531</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="H153" s="0" t="n">
-        <v>1.49</v>
+        <v>1.6</v>
+      </c>
+      <c r="H153" s="6" t="n">
+        <v>1.538</v>
       </c>
       <c r="I153" s="6" t="n">
-        <v>0.45</v>
+        <v>0.469</v>
       </c>
       <c r="J153" s="0" t="n">
-        <v>-1385</v>
+        <v>-1907</v>
       </c>
       <c r="K153" s="0" t="n">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="L153" s="0" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="M153" s="2" t="n">
-        <v>1.31</v>
+        <v>1.48</v>
       </c>
       <c r="N153" s="2" t="n">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="O153" s="4" t="n">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="P153" s="4" t="n">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="Q153" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="R153" s="0" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="S153" s="0" t="n">
         <v>100</v>
       </c>
       <c r="T153" s="0" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="U153" s="0" t="n">
         <v>500</v>
@@ -12039,16 +12540,13 @@
         <v>500</v>
       </c>
       <c r="X153" s="0" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="Y153" s="0" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z153" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="AA153" s="0" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12065,46 +12563,46 @@
         <v>8</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="F154" s="3" t="n">
-        <v>-693</v>
+        <v>-694</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="I154" s="0" t="n">
-        <v>0.46</v>
+        <v>1.49</v>
+      </c>
+      <c r="I154" s="6" t="n">
+        <v>0.45</v>
       </c>
       <c r="J154" s="0" t="n">
-        <v>-1145</v>
+        <v>-1385</v>
       </c>
       <c r="K154" s="0" t="n">
-        <v>1.3</v>
+        <v>1.49</v>
       </c>
       <c r="L154" s="0" t="n">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="M154" s="2" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="N154" s="2" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="O154" s="4" t="n">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="P154" s="4" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q154" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="R154" s="0" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="S154" s="0" t="n">
         <v>100</v>
@@ -12129,6 +12627,9 @@
       </c>
       <c r="Z154" s="0" t="n">
         <v>250</v>
+      </c>
+      <c r="AA154" s="0" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12139,58 +12640,58 @@
         <v>6990</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D155" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F155" s="3" t="n">
-        <v>-1385</v>
+        <v>-693</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>0.02</v>
+        <v>1.22</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="J155" s="0" t="n">
-        <v>-1754</v>
+        <v>-1145</v>
       </c>
       <c r="K155" s="0" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="L155" s="0" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="M155" s="2" t="n">
-        <v>1.69</v>
+        <v>1.26</v>
       </c>
       <c r="N155" s="2" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="O155" s="4" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P155" s="4" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q155" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="R155" s="0" t="s">
-        <v>255</v>
+        <v>106</v>
       </c>
       <c r="S155" s="0" t="n">
         <v>100</v>
       </c>
       <c r="T155" s="0" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="U155" s="0" t="n">
         <v>500</v>
@@ -12202,19 +12703,13 @@
         <v>500</v>
       </c>
       <c r="X155" s="0" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="Y155" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z155" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="AA155" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB155" s="0" t="n">
-        <v>30</v>
+        <v>250</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12234,43 +12729,43 @@
         <v>0.01</v>
       </c>
       <c r="F156" s="3" t="n">
-        <v>-1316</v>
+        <v>-1385</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>0.22</v>
+        <v>1.53</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>0.12</v>
+        <v>0.43</v>
       </c>
       <c r="J156" s="0" t="n">
-        <v>-2029</v>
+        <v>-1754</v>
       </c>
       <c r="K156" s="0" t="n">
-        <v>0.15</v>
+        <v>1.39</v>
       </c>
       <c r="L156" s="0" t="n">
-        <v>0.07</v>
+        <v>0.43</v>
       </c>
       <c r="M156" s="2" t="n">
-        <v>0.233</v>
+        <v>1.69</v>
       </c>
       <c r="N156" s="2" t="n">
-        <v>0.119</v>
+        <v>0.33</v>
       </c>
       <c r="O156" s="4" t="n">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="P156" s="4" t="n">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="Q156" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="R156" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="S156" s="0" t="n">
         <v>100</v>
@@ -12320,40 +12815,40 @@
         <v>0.01</v>
       </c>
       <c r="F157" s="3" t="n">
-        <v>-2462</v>
+        <v>-1316</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>0.153</v>
+        <v>0.22</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>0.068</v>
+        <v>0.12</v>
       </c>
       <c r="J157" s="0" t="n">
-        <v>-2494</v>
+        <v>-2029</v>
       </c>
       <c r="K157" s="0" t="n">
         <v>0.15</v>
       </c>
       <c r="L157" s="0" t="n">
-        <v>0.067</v>
+        <v>0.07</v>
       </c>
       <c r="M157" s="2" t="n">
-        <v>0.15</v>
+        <v>0.233</v>
       </c>
       <c r="N157" s="2" t="n">
-        <v>0.067</v>
+        <v>0.119</v>
       </c>
       <c r="O157" s="4" t="n">
-        <v>150</v>
+        <v>233</v>
       </c>
       <c r="P157" s="4" t="n">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="Q157" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="R157" s="0" t="s">
         <v>258</v>
@@ -12365,7 +12860,7 @@
         <v>150</v>
       </c>
       <c r="U157" s="0" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="V157" s="0" t="n">
         <v>500</v>
@@ -12391,13 +12886,13 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>6990</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D158" s="0" t="n">
         <v>8</v>
@@ -12406,43 +12901,43 @@
         <v>0.01</v>
       </c>
       <c r="F158" s="3" t="n">
-        <v>-1909</v>
+        <v>-2462</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>1.16</v>
+        <v>0.153</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>0.32</v>
+        <v>0.068</v>
       </c>
       <c r="J158" s="0" t="n">
-        <v>-1909</v>
+        <v>-2494</v>
       </c>
       <c r="K158" s="0" t="n">
-        <v>1.13</v>
+        <v>0.15</v>
       </c>
       <c r="L158" s="0" t="n">
-        <v>0.32</v>
+        <v>0.067</v>
       </c>
       <c r="M158" s="2" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="N158" s="2" t="n">
-        <v>0.36</v>
+        <v>0.067</v>
       </c>
       <c r="O158" s="4" t="n">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="P158" s="4" t="n">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="Q158" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R158" s="0" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="S158" s="0" t="n">
         <v>100</v>
@@ -12451,7 +12946,7 @@
         <v>150</v>
       </c>
       <c r="U158" s="0" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="V158" s="0" t="n">
         <v>500</v>
@@ -12470,6 +12965,9 @@
       </c>
       <c r="AA158" s="0" t="n">
         <v>60</v>
+      </c>
+      <c r="AB158" s="0" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12489,43 +12987,43 @@
         <v>0.01</v>
       </c>
       <c r="F159" s="3" t="n">
-        <v>-1673</v>
+        <v>-1909</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>1.55</v>
+        <v>1.16</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
       <c r="J159" s="0" t="n">
-        <v>-1840</v>
+        <v>-1909</v>
       </c>
       <c r="K159" s="0" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="L159" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="M159" s="2" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="N159" s="2" t="n">
         <v>0.36</v>
       </c>
-      <c r="M159" s="2" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="N159" s="2" t="n">
-        <v>0.38</v>
-      </c>
       <c r="O159" s="4" t="n">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="P159" s="4" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Q159" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="R159" s="0" t="s">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="S159" s="0" t="n">
         <v>100</v>
@@ -12550,6 +13048,9 @@
       </c>
       <c r="Z159" s="0" t="n">
         <v>200</v>
+      </c>
+      <c r="AA159" s="0" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12569,43 +13070,43 @@
         <v>0.01</v>
       </c>
       <c r="F160" s="3" t="n">
-        <v>-1282</v>
+        <v>-1673</v>
       </c>
       <c r="G160" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>0.94</v>
+        <v>1.55</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="J160" s="0" t="n">
-        <v>-1329</v>
+        <v>-1840</v>
       </c>
       <c r="K160" s="0" t="n">
-        <v>0.94</v>
+        <v>1.08</v>
       </c>
       <c r="L160" s="0" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="M160" s="2" t="n">
-        <v>1.34</v>
+        <v>1.75</v>
       </c>
       <c r="N160" s="2" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="O160" s="4" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P160" s="4" t="n">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="Q160" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="R160" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="S160" s="0" t="n">
         <v>100</v>
@@ -12630,9 +13131,6 @@
       </c>
       <c r="Z160" s="0" t="n">
         <v>200</v>
-      </c>
-      <c r="AA160" s="0" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12643,7 +13141,7 @@
         <v>6990</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>8</v>
@@ -12652,43 +13150,43 @@
         <v>0.01</v>
       </c>
       <c r="F161" s="3" t="n">
-        <v>-1612</v>
+        <v>-1282</v>
       </c>
       <c r="G161" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H161" s="5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I161" s="6" t="n">
-        <v>0.35</v>
+      <c r="H161" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="I161" s="0" t="n">
+        <v>0.33</v>
       </c>
       <c r="J161" s="0" t="n">
-        <v>-1703</v>
+        <v>-1329</v>
       </c>
       <c r="K161" s="0" t="n">
-        <v>1.28</v>
+        <v>0.94</v>
       </c>
       <c r="L161" s="0" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="M161" s="6" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="N161" s="11" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="O161" s="0" t="n">
-        <v>224</v>
-      </c>
-      <c r="P161" s="0" t="n">
-        <v>107</v>
+        <v>0.33</v>
+      </c>
+      <c r="M161" s="2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="N161" s="2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="O161" s="4" t="n">
+        <v>225</v>
+      </c>
+      <c r="P161" s="4" t="n">
+        <v>106</v>
       </c>
       <c r="Q161" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="R161" s="0" t="s">
-        <v>263</v>
+        <v>171</v>
       </c>
       <c r="S161" s="0" t="n">
         <v>100</v>
@@ -12713,6 +13211,9 @@
       </c>
       <c r="Z161" s="0" t="n">
         <v>200</v>
+      </c>
+      <c r="AA161" s="0" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12723,52 +13224,52 @@
         <v>6990</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="F162" s="3" t="n">
-        <v>-1352</v>
+        <v>-1612</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="H162" s="0" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="I162" s="13" t="n">
-        <v>0.31</v>
+        <v>0</v>
+      </c>
+      <c r="H162" s="5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I162" s="6" t="n">
+        <v>0.35</v>
       </c>
       <c r="J162" s="0" t="n">
-        <v>-1518</v>
+        <v>-1703</v>
       </c>
       <c r="K162" s="0" t="n">
-        <v>0.89</v>
+        <v>1.28</v>
       </c>
       <c r="L162" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M162" s="2" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="N162" s="2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O162" s="4" t="n">
-        <v>235</v>
-      </c>
-      <c r="P162" s="4" t="n">
-        <v>108</v>
+        <v>0.34</v>
+      </c>
+      <c r="M162" s="6" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="N162" s="11" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="O162" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="P162" s="0" t="n">
+        <v>107</v>
       </c>
       <c r="Q162" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R162" s="0" t="s">
-        <v>106</v>
+        <v>266</v>
       </c>
       <c r="S162" s="0" t="n">
         <v>100</v>
@@ -12793,9 +13294,6 @@
       </c>
       <c r="Z162" s="0" t="n">
         <v>200</v>
-      </c>
-      <c r="AA162" s="0" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12812,46 +13310,46 @@
         <v>8</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F163" s="3" t="n">
-        <v>-1347</v>
+        <v>-1352</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="I163" s="0" t="n">
-        <v>0.37</v>
+        <v>0.89</v>
+      </c>
+      <c r="I163" s="13" t="n">
+        <v>0.31</v>
       </c>
       <c r="J163" s="0" t="n">
-        <v>-1583</v>
+        <v>-1518</v>
       </c>
       <c r="K163" s="0" t="n">
-        <v>1.03</v>
+        <v>0.89</v>
       </c>
       <c r="L163" s="0" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="M163" s="2" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="N163" s="2" t="n">
         <v>0.37</v>
       </c>
       <c r="O163" s="4" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P163" s="4" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q163" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="R163" s="0" t="s">
-        <v>199</v>
+        <v>106</v>
       </c>
       <c r="S163" s="0" t="n">
         <v>100</v>
@@ -12882,17 +13380,86 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F164" s="3"/>
-      <c r="M164" s="2"/>
-      <c r="N164" s="2"/>
+      <c r="A164" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B164" s="0" t="n">
+        <v>6990</v>
+      </c>
+      <c r="C164" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D164" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E164" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F164" s="3" t="n">
+        <v>-1347</v>
+      </c>
+      <c r="G164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" s="0" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I164" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J164" s="0" t="n">
+        <v>-1583</v>
+      </c>
+      <c r="K164" s="0" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L164" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="M164" s="2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="N164" s="2" t="n">
+        <v>0.37</v>
+      </c>
       <c r="O164" s="4" t="n">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="P164" s="4" t="n">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="Q164" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
+      </c>
+      <c r="R164" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="S164" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T164" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U164" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="V164" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="W164" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="X164" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y164" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z164" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA164" s="0" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12900,13 +13467,13 @@
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
       <c r="O165" s="4" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P165" s="4" t="n">
         <v>118</v>
       </c>
       <c r="Q165" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12914,194 +13481,146 @@
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
       <c r="O166" s="4" t="n">
+        <v>184</v>
+      </c>
+      <c r="P166" s="4" t="n">
+        <v>118</v>
+      </c>
+      <c r="Q166" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F167" s="3"/>
+      <c r="M167" s="2"/>
+      <c r="N167" s="2"/>
+      <c r="O167" s="4" t="n">
         <v>296</v>
       </c>
-      <c r="P166" s="4" t="n">
+      <c r="P167" s="4" t="n">
         <v>196</v>
       </c>
-      <c r="Q166" s="0" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+      <c r="Q167" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="B167" s="0" t="n">
+      <c r="B168" s="0" t="n">
         <v>6990</v>
       </c>
-      <c r="C167" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="D167" s="0" t="n">
+      <c r="C168" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D168" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E167" s="0" t="n">
+      <c r="E168" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="F167" s="3" t="n">
+      <c r="F168" s="3" t="n">
         <v>-2821</v>
       </c>
-      <c r="G167" s="0" t="n">
+      <c r="G168" s="0" t="n">
         <v>2.97</v>
       </c>
-      <c r="H167" s="0" t="n">
+      <c r="H168" s="0" t="n">
         <v>0.0401</v>
       </c>
-      <c r="I167" s="0" t="n">
+      <c r="I168" s="0" t="n">
         <v>0.0435</v>
       </c>
-      <c r="J167" s="0" t="n">
+      <c r="J168" s="0" t="n">
         <v>-2821</v>
       </c>
-      <c r="K167" s="0" t="n">
+      <c r="K168" s="0" t="n">
         <v>0.0386</v>
       </c>
-      <c r="L167" s="0" t="n">
+      <c r="L168" s="0" t="n">
         <v>0.0435</v>
       </c>
-      <c r="M167" s="2" t="n">
+      <c r="M168" s="2" t="n">
         <v>0.039</v>
       </c>
-      <c r="N167" s="2" t="n">
+      <c r="N168" s="2" t="n">
         <v>0.043</v>
       </c>
-      <c r="O167" s="4" t="n">
+      <c r="O168" s="4" t="n">
         <v>39</v>
       </c>
-      <c r="P167" s="17" t="n">
+      <c r="P168" s="17" t="n">
         <v>43</v>
       </c>
-      <c r="Q167" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="R167" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="S167" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T167" s="0" t="n">
+      <c r="Q168" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="R168" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="S168" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T168" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="U167" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="V167" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="W167" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="X167" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y167" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z167" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="AA167" s="0" t="n">
+      <c r="U168" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="V168" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="W168" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="X168" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y168" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z168" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA168" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="AB167" s="0" t="n">
+      <c r="AB168" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="AE167" s="0" t="s">
+      <c r="AE168" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="AF167" s="0" t="n">
+      <c r="AF168" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="AG167" s="0" t="n">
+      <c r="AG168" s="0" t="n">
         <v>0.62</v>
       </c>
-      <c r="AH167" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="AI167" s="0" t="n">
+      <c r="AH168" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="AI168" s="0" t="n">
         <v>0.77</v>
       </c>
-      <c r="AJ167" s="0" t="s">
+      <c r="AJ168" s="0" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O168" s="0" t="n">
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O169" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="P168" s="0" t="n">
+      <c r="P169" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="AG168" s="0" t="n">
+      <c r="AG169" s="0" t="n">
         <v>0.77</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F169" s="3"/>
-    </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="0" t="n">
-        <v>7951</v>
-      </c>
-      <c r="C170" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D170" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E170" s="0" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F170" s="0" t="n">
-        <v>-473</v>
-      </c>
-      <c r="G170" s="0" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="H170" s="0" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="I170" s="0" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="J170" s="0" t="n">
-        <v>-1455</v>
-      </c>
-      <c r="K170" s="0" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L170" s="0" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="M170" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N170" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O170" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P170" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q170" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="R170" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="S170" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="T170" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AE170" s="0" t="s">
-        <v>70</v>
-      </c>
+      <c r="F170" s="3"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="0" t="n">
@@ -13117,25 +13636,25 @@
         <v>0.001</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>-1398</v>
+        <v>-473</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>0.23</v>
+        <v>4.06</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>1.29</v>
+        <v>2.17</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>0.43</v>
+        <v>0.55</v>
       </c>
       <c r="J171" s="0" t="n">
-        <v>-1398</v>
+        <v>-1455</v>
       </c>
       <c r="K171" s="0" t="n">
-        <v>0.96</v>
+        <v>2.12</v>
       </c>
       <c r="L171" s="0" t="n">
-        <v>0.39</v>
+        <v>0.52</v>
       </c>
       <c r="M171" s="2" t="s">
         <v>25</v>
@@ -13150,7 +13669,7 @@
         <v>25</v>
       </c>
       <c r="Q171" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="R171" s="0" t="s">
         <v>57</v>
@@ -13170,7 +13689,7 @@
         <v>7951</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>8</v>
@@ -13178,27 +13697,27 @@
       <c r="E172" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="F172" s="3" t="n">
-        <v>-1928</v>
+      <c r="F172" s="0" t="n">
+        <v>-1398</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>1.21</v>
+        <v>0.23</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="I172" s="0" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J172" s="0" t="n">
+        <v>-1398</v>
+      </c>
+      <c r="K172" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="L172" s="0" t="n">
         <v>0.39</v>
       </c>
-      <c r="J172" s="0" t="n">
-        <v>-1944</v>
-      </c>
-      <c r="K172" s="0" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="L172" s="0" t="n">
-        <v>0.38</v>
-      </c>
       <c r="M172" s="2" t="s">
         <v>25</v>
       </c>
@@ -13212,10 +13731,10 @@
         <v>25</v>
       </c>
       <c r="Q172" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="R172" s="0" t="s">
-        <v>274</v>
+        <v>57</v>
       </c>
       <c r="S172" s="0" t="n">
         <v>80</v>
@@ -13232,7 +13751,7 @@
         <v>7951</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="D173" s="0" t="n">
         <v>8</v>
@@ -13241,25 +13760,25 @@
         <v>0.001</v>
       </c>
       <c r="F173" s="3" t="n">
-        <v>-776</v>
+        <v>-1928</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>10.05</v>
+        <v>1.21</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>0.447</v>
+        <v>0.39</v>
       </c>
       <c r="J173" s="0" t="n">
-        <v>-1901</v>
+        <v>-1944</v>
       </c>
       <c r="K173" s="0" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="L173" s="0" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="M173" s="2" t="s">
         <v>25</v>
@@ -13274,10 +13793,10 @@
         <v>25</v>
       </c>
       <c r="Q173" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="R173" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="S173" s="0" t="n">
         <v>80</v>
@@ -13303,25 +13822,25 @@
         <v>0.001</v>
       </c>
       <c r="F174" s="3" t="n">
-        <v>-1912</v>
+        <v>-776</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>1.84</v>
+        <v>10.05</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>1.23</v>
+        <v>1.53</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>0.4</v>
+        <v>0.447</v>
       </c>
       <c r="J174" s="0" t="n">
-        <v>-1912</v>
+        <v>-1901</v>
       </c>
       <c r="K174" s="0" t="n">
-        <v>1.06</v>
+        <v>1.3</v>
       </c>
       <c r="L174" s="0" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="M174" s="2" t="s">
         <v>25</v>
@@ -13336,10 +13855,10 @@
         <v>25</v>
       </c>
       <c r="Q174" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="R174" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="S174" s="0" t="n">
         <v>80</v>
@@ -13356,7 +13875,7 @@
         <v>7951</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>8</v>
@@ -13364,23 +13883,23 @@
       <c r="E175" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="F175" s="19" t="n">
-        <v>-2083.084134</v>
-      </c>
-      <c r="G175" s="27" t="n">
-        <v>1.446265</v>
-      </c>
-      <c r="H175" s="28" t="n">
+      <c r="F175" s="3" t="n">
+        <v>-1912</v>
+      </c>
+      <c r="G175" s="0" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H175" s="0" t="n">
         <v>1.23</v>
       </c>
-      <c r="I175" s="29" t="n">
-        <v>0.402</v>
+      <c r="I175" s="0" t="n">
+        <v>0.4</v>
       </c>
       <c r="J175" s="0" t="n">
-        <v>-2083</v>
+        <v>-1912</v>
       </c>
       <c r="K175" s="0" t="n">
-        <v>0.97</v>
+        <v>1.06</v>
       </c>
       <c r="L175" s="0" t="n">
         <v>0.38</v>
@@ -13398,10 +13917,16 @@
         <v>25</v>
       </c>
       <c r="Q175" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="R175" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="R175" s="0" t="s">
-        <v>274</v>
+      <c r="S175" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="T175" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="AE175" s="0" t="s">
         <v>70</v>
@@ -13412,7 +13937,7 @@
         <v>7951</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D176" s="0" t="n">
         <v>8</v>
@@ -13421,25 +13946,25 @@
         <v>0.001</v>
       </c>
       <c r="F176" s="19" t="n">
-        <v>-1701.235593</v>
+        <v>-2083.084134</v>
       </c>
       <c r="G176" s="27" t="n">
-        <v>0.205201</v>
+        <v>1.446265</v>
       </c>
       <c r="H176" s="28" t="n">
-        <v>1.303875</v>
-      </c>
-      <c r="I176" s="28" t="n">
-        <v>0.409625</v>
+        <v>1.23</v>
+      </c>
+      <c r="I176" s="29" t="n">
+        <v>0.402</v>
       </c>
       <c r="J176" s="0" t="n">
-        <v>-1715</v>
+        <v>-2083</v>
       </c>
       <c r="K176" s="0" t="n">
-        <v>1.02</v>
+        <v>0.97</v>
       </c>
       <c r="L176" s="0" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="M176" s="2" t="s">
         <v>25</v>
@@ -13454,27 +13979,21 @@
         <v>25</v>
       </c>
       <c r="Q176" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="R176" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="S176" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="T176" s="0" t="n">
-        <v>100</v>
+        <v>277</v>
       </c>
       <c r="AE176" s="0" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="1" t="n">
+      <c r="B177" s="0" t="n">
         <v>7951</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D177" s="0" t="n">
         <v>8</v>
@@ -13483,25 +14002,25 @@
         <v>0.001</v>
       </c>
       <c r="F177" s="19" t="n">
-        <v>-2171.673459</v>
-      </c>
-      <c r="G177" s="18" t="n">
-        <v>0.643717</v>
-      </c>
-      <c r="H177" s="0" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="I177" s="0" t="n">
-        <v>0.39</v>
+        <v>-1701.235593</v>
+      </c>
+      <c r="G177" s="27" t="n">
+        <v>0.205201</v>
+      </c>
+      <c r="H177" s="28" t="n">
+        <v>1.303875</v>
+      </c>
+      <c r="I177" s="28" t="n">
+        <v>0.409625</v>
       </c>
       <c r="J177" s="0" t="n">
-        <v>-2309</v>
+        <v>-1715</v>
       </c>
       <c r="K177" s="0" t="n">
-        <v>0.93</v>
+        <v>1.02</v>
       </c>
       <c r="L177" s="0" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="M177" s="2" t="s">
         <v>25</v>
@@ -13516,10 +14035,10 @@
         <v>25</v>
       </c>
       <c r="Q177" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R177" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="S177" s="0" t="n">
         <v>80</v>
@@ -13545,25 +14064,25 @@
         <v>0.001</v>
       </c>
       <c r="F178" s="19" t="n">
-        <v>-2106.317675</v>
+        <v>-2171.673459</v>
       </c>
       <c r="G178" s="18" t="n">
-        <v>0.905259</v>
+        <v>0.643717</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="I178" s="13" t="n">
-        <v>0.38</v>
+        <v>1.27</v>
+      </c>
+      <c r="I178" s="0" t="n">
+        <v>0.39</v>
       </c>
       <c r="J178" s="0" t="n">
-        <v>-2363</v>
+        <v>-2309</v>
       </c>
       <c r="K178" s="0" t="n">
-        <v>1.12</v>
+        <v>0.93</v>
       </c>
       <c r="L178" s="0" t="n">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="M178" s="2" t="s">
         <v>25</v>
@@ -13578,34 +14097,16 @@
         <v>25</v>
       </c>
       <c r="Q178" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="R178" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="S178" s="0" t="n">
         <v>80</v>
       </c>
       <c r="T178" s="0" t="n">
         <v>100</v>
-      </c>
-      <c r="U178" s="18" t="n">
-        <v>500</v>
-      </c>
-      <c r="V178" s="18" t="n">
-        <v>500</v>
-      </c>
-      <c r="W178" s="18" t="n">
-        <v>500</v>
-      </c>
-      <c r="X178" s="18" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y178" s="18" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z178" s="18" t="n">
-        <v>200</v>
       </c>
       <c r="AE178" s="0" t="s">
         <v>70</v>
@@ -13625,25 +14126,25 @@
         <v>0.001</v>
       </c>
       <c r="F179" s="19" t="n">
-        <v>-1707.700476</v>
+        <v>-2106.317675</v>
       </c>
       <c r="G179" s="18" t="n">
-        <v>2.741446</v>
+        <v>0.905259</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="I179" s="0" t="n">
-        <v>0.4</v>
+        <v>1.26</v>
+      </c>
+      <c r="I179" s="13" t="n">
+        <v>0.38</v>
       </c>
       <c r="J179" s="0" t="n">
-        <v>-1979</v>
+        <v>-2363</v>
       </c>
       <c r="K179" s="0" t="n">
-        <v>1.36</v>
+        <v>1.12</v>
       </c>
       <c r="L179" s="0" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="M179" s="2" t="s">
         <v>25</v>
@@ -13658,13 +14159,13 @@
         <v>25</v>
       </c>
       <c r="Q179" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="R179" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="S179" s="20" t="n">
-        <v>200</v>
+      <c r="S179" s="0" t="n">
+        <v>80</v>
       </c>
       <c r="T179" s="0" t="n">
         <v>100</v>
@@ -13692,83 +14193,83 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
-        <v>108</v>
-      </c>
       <c r="B180" s="1" t="n">
         <v>7951</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D180" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F180" s="19" t="n">
-        <v>-1158</v>
+        <v>-1707.700476</v>
       </c>
       <c r="G180" s="18" t="n">
-        <v>0</v>
+        <v>2.741446</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="J180" s="0" t="n">
-        <v>-1374</v>
+        <v>-1979</v>
       </c>
       <c r="K180" s="0" t="n">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="L180" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="M180" s="2" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="N180" s="2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O180" s="2" t="n">
-        <v>242</v>
-      </c>
-      <c r="P180" s="2" t="n">
-        <v>103</v>
+        <v>0.39</v>
+      </c>
+      <c r="M180" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N180" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O180" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P180" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="Q180" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="R180" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="S180" s="0" t="n">
-        <v>100</v>
+        <v>287</v>
+      </c>
+      <c r="S180" s="20" t="n">
+        <v>200</v>
       </c>
       <c r="T180" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="U180" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="V180" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="W180" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="X180" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y180" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z180" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
+      </c>
+      <c r="U180" s="18" t="n">
+        <v>500</v>
+      </c>
+      <c r="V180" s="18" t="n">
+        <v>500</v>
+      </c>
+      <c r="W180" s="18" t="n">
+        <v>500</v>
+      </c>
+      <c r="X180" s="18" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y180" s="18" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z180" s="18" t="n">
+        <v>200</v>
+      </c>
+      <c r="AE180" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13788,40 +14289,40 @@
         <v>0.01</v>
       </c>
       <c r="F181" s="19" t="n">
-        <v>-1377</v>
+        <v>-1158</v>
       </c>
       <c r="G181" s="18" t="n">
         <v>0</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="J181" s="0" t="n">
-        <v>-1377</v>
+        <v>-1374</v>
       </c>
       <c r="K181" s="0" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="L181" s="0" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="M181" s="2" t="n">
-        <v>1.78</v>
+        <v>1.45</v>
       </c>
       <c r="N181" s="2" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="O181" s="2" t="n">
-        <v>299</v>
+        <v>242</v>
       </c>
       <c r="P181" s="2" t="n">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="Q181" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="R181" s="0" t="s">
         <v>171</v>
@@ -13849,9 +14350,6 @@
       </c>
       <c r="Z181" s="0" t="n">
         <v>200</v>
-      </c>
-      <c r="AA181" s="0" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13868,46 +14366,46 @@
         <v>8</v>
       </c>
       <c r="E182" s="0" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="F182" s="19" t="n">
-        <v>-1221</v>
+        <v>-1377</v>
       </c>
       <c r="G182" s="18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>1.45</v>
+        <v>1.72</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
       <c r="J182" s="0" t="n">
-        <v>-1317</v>
+        <v>-1377</v>
       </c>
       <c r="K182" s="0" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="L182" s="13" t="n">
-        <v>0.39</v>
+        <v>1.37</v>
+      </c>
+      <c r="L182" s="0" t="n">
+        <v>0.44</v>
       </c>
       <c r="M182" s="2" t="n">
-        <v>1.35</v>
+        <v>1.78</v>
       </c>
       <c r="N182" s="2" t="n">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="O182" s="2" t="n">
-        <v>212</v>
+        <v>299</v>
       </c>
       <c r="P182" s="2" t="n">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="Q182" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="R182" s="0" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="S182" s="0" t="n">
         <v>100</v>
@@ -13954,40 +14452,40 @@
         <v>0.001</v>
       </c>
       <c r="F183" s="19" t="n">
-        <v>-1114</v>
+        <v>-1221</v>
       </c>
       <c r="G183" s="18" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="I183" s="13" t="n">
-        <v>0.42</v>
+        <v>1.45</v>
+      </c>
+      <c r="I183" s="0" t="n">
+        <v>0.39</v>
       </c>
       <c r="J183" s="0" t="n">
-        <v>-1271</v>
+        <v>-1317</v>
       </c>
       <c r="K183" s="0" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="L183" s="0" t="n">
-        <v>0.4</v>
+        <v>1.45</v>
+      </c>
+      <c r="L183" s="13" t="n">
+        <v>0.39</v>
       </c>
       <c r="M183" s="2" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="N183" s="2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="O183" s="2" t="n">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="P183" s="2" t="n">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="Q183" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="R183" s="0" t="s">
         <v>106</v>
@@ -14034,46 +14532,46 @@
         <v>8</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F184" s="19" t="n">
-        <v>-1634</v>
+        <v>-1114</v>
       </c>
       <c r="G184" s="18" t="n">
-        <v>0.01</v>
+        <v>0.33</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="I184" s="0" t="n">
-        <v>0.41</v>
+        <v>1.54</v>
+      </c>
+      <c r="I184" s="13" t="n">
+        <v>0.42</v>
       </c>
       <c r="J184" s="0" t="n">
-        <v>-1677</v>
+        <v>-1271</v>
       </c>
       <c r="K184" s="0" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="L184" s="0" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="M184" s="2" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="N184" s="2" t="n">
         <v>0.32</v>
       </c>
       <c r="O184" s="2" t="n">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="P184" s="2" t="n">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="Q184" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="R184" s="0" t="s">
-        <v>255</v>
+        <v>106</v>
       </c>
       <c r="S184" s="0" t="n">
         <v>100</v>
@@ -14102,13 +14600,10 @@
       <c r="AA184" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="AB184" s="0" t="n">
-        <v>30</v>
-      </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>290</v>
+        <v>108</v>
       </c>
       <c r="B185" s="1" t="n">
         <v>7951</v>
@@ -14123,43 +14618,43 @@
         <v>0.01</v>
       </c>
       <c r="F185" s="19" t="n">
-        <v>-1700</v>
+        <v>-1634</v>
       </c>
       <c r="G185" s="18" t="n">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>0.18</v>
+        <v>1.43</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>0.09</v>
+        <v>0.41</v>
       </c>
       <c r="J185" s="0" t="n">
-        <v>-1907</v>
+        <v>-1677</v>
       </c>
       <c r="K185" s="0" t="n">
-        <v>0.18</v>
+        <v>1.43</v>
       </c>
       <c r="L185" s="0" t="n">
-        <v>0.08</v>
+        <v>0.41</v>
       </c>
       <c r="M185" s="2" t="n">
-        <v>0.197</v>
+        <v>1.43</v>
       </c>
       <c r="N185" s="2" t="n">
-        <v>0.089</v>
-      </c>
-      <c r="O185" s="30" t="n">
-        <v>197</v>
-      </c>
-      <c r="P185" s="30" t="n">
-        <v>89</v>
+        <v>0.32</v>
+      </c>
+      <c r="O185" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="P185" s="2" t="n">
+        <v>86</v>
       </c>
       <c r="Q185" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R185" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="S185" s="0" t="n">
         <v>100</v>
@@ -14194,7 +14689,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B186" s="1" t="n">
         <v>7951</v>
@@ -14209,43 +14704,43 @@
         <v>0.01</v>
       </c>
       <c r="F186" s="19" t="n">
-        <v>-1298</v>
+        <v>-1700</v>
       </c>
       <c r="G186" s="18" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>0.28</v>
+        <v>0.18</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="J186" s="0" t="n">
-        <v>-1786</v>
+        <v>-1907</v>
       </c>
       <c r="K186" s="0" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="L186" s="0" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="M186" s="2" t="n">
-        <v>0.296</v>
+        <v>0.197</v>
       </c>
       <c r="N186" s="2" t="n">
-        <v>0.158</v>
+        <v>0.089</v>
       </c>
       <c r="O186" s="30" t="n">
-        <v>296</v>
+        <v>197</v>
       </c>
       <c r="P186" s="30" t="n">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="Q186" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="R186" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="S186" s="0" t="n">
         <v>100</v>
@@ -14275,18 +14770,18 @@
         <v>60</v>
       </c>
       <c r="AB186" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>7951</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>8</v>
@@ -14295,43 +14790,43 @@
         <v>0.01</v>
       </c>
       <c r="F187" s="19" t="n">
-        <v>-1823</v>
+        <v>-1298</v>
       </c>
       <c r="G187" s="18" t="n">
         <v>0</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>0.109</v>
+        <v>0.15</v>
       </c>
       <c r="J187" s="0" t="n">
-        <v>-1873</v>
+        <v>-1786</v>
       </c>
       <c r="K187" s="0" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="L187" s="0" t="n">
-        <v>0.101</v>
+        <v>0.06</v>
       </c>
       <c r="M187" s="2" t="n">
-        <v>0.276</v>
+        <v>0.296</v>
       </c>
       <c r="N187" s="2" t="n">
-        <v>0.111</v>
+        <v>0.158</v>
       </c>
       <c r="O187" s="30" t="n">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="P187" s="30" t="n">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="Q187" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="R187" s="0" t="s">
-        <v>199</v>
+        <v>258</v>
       </c>
       <c r="S187" s="0" t="n">
         <v>100</v>
@@ -14361,18 +14856,18 @@
         <v>60</v>
       </c>
       <c r="AB187" s="0" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B188" s="1" t="n">
         <v>7951</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>8</v>
@@ -14381,51 +14876,78 @@
         <v>0.01</v>
       </c>
       <c r="F188" s="19" t="n">
-        <v>-1320</v>
+        <v>-1823</v>
       </c>
       <c r="G188" s="18" t="n">
         <v>0</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>0.11</v>
+        <v>0.109</v>
       </c>
       <c r="J188" s="0" t="n">
-        <v>-1678</v>
+        <v>-1873</v>
       </c>
       <c r="K188" s="0" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="L188" s="0" t="n">
-        <v>0.08</v>
+        <v>0.101</v>
       </c>
       <c r="M188" s="2" t="n">
-        <v>0.265</v>
+        <v>0.276</v>
       </c>
       <c r="N188" s="2" t="n">
-        <v>0.112</v>
+        <v>0.111</v>
       </c>
       <c r="O188" s="30" t="n">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="P188" s="30" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q188" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="R188" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
+      </c>
+      <c r="S188" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T188" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U188" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="V188" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="W188" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="X188" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y188" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z188" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA188" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="AB188" s="0" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>177</v>
+        <v>293</v>
       </c>
       <c r="B189" s="1" t="n">
         <v>7951</v>
@@ -14437,175 +14959,151 @@
         <v>8</v>
       </c>
       <c r="E189" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F189" s="19" t="n">
+        <v>-1320</v>
+      </c>
+      <c r="G189" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I189" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J189" s="0" t="n">
+        <v>-1678</v>
+      </c>
+      <c r="K189" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L189" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M189" s="2" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="N189" s="2" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="O189" s="30" t="n">
+        <v>265</v>
+      </c>
+      <c r="P189" s="30" t="n">
+        <v>112</v>
+      </c>
+      <c r="Q189" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="R189" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB189" s="0" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B190" s="1" t="n">
+        <v>7951</v>
+      </c>
+      <c r="C190" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D190" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E190" s="0" t="n">
         <v>0.001</v>
       </c>
-      <c r="F189" s="19" t="n">
+      <c r="F190" s="19" t="n">
         <v>-2700</v>
       </c>
-      <c r="G189" s="18" t="n">
+      <c r="G190" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="H189" s="0" t="n">
+      <c r="H190" s="0" t="n">
         <v>0.221</v>
       </c>
-      <c r="I189" s="0" t="n">
+      <c r="I190" s="0" t="n">
         <v>0.082</v>
       </c>
-      <c r="J189" s="0" t="n">
+      <c r="J190" s="0" t="n">
         <v>-2700</v>
       </c>
-      <c r="K189" s="0" t="n">
+      <c r="K190" s="0" t="n">
         <v>0.215</v>
       </c>
-      <c r="L189" s="0" t="n">
+      <c r="L190" s="0" t="n">
         <v>0.082</v>
       </c>
-      <c r="M189" s="2" t="n">
+      <c r="M190" s="2" t="n">
         <v>0.224</v>
       </c>
-      <c r="N189" s="2" t="n">
+      <c r="N190" s="2" t="n">
         <v>0.081</v>
       </c>
-      <c r="O189" s="30" t="n">
+      <c r="O190" s="30" t="n">
         <v>224</v>
       </c>
-      <c r="P189" s="30" t="n">
+      <c r="P190" s="30" t="n">
         <v>81</v>
       </c>
-      <c r="Q189" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="R189" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="S189" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T189" s="0" t="n">
+      <c r="Q190" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="R190" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="S190" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T190" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="U189" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="V189" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="W189" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="X189" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y189" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z189" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="AA189" s="0" t="n">
+      <c r="U190" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="V190" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="W190" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="X190" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y190" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z190" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA190" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="AB189" s="0" t="n">
+      <c r="AB190" s="0" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="1"/>
-      <c r="F190" s="19"/>
-      <c r="G190" s="18"/>
-      <c r="M190" s="2"/>
-      <c r="N190" s="2"/>
-      <c r="O190" s="30" t="n">
-        <v>100</v>
-      </c>
-      <c r="P190" s="30" t="n">
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B191" s="1"/>
+      <c r="F191" s="19"/>
+      <c r="G191" s="18"/>
+      <c r="M191" s="2"/>
+      <c r="N191" s="2"/>
+      <c r="O191" s="30" t="n">
+        <v>100</v>
+      </c>
+      <c r="P191" s="30" t="n">
         <v>64</v>
       </c>
-      <c r="Q190" s="0" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="B191" s="1" t="n">
-        <v>7951</v>
-      </c>
-      <c r="C191" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="D191" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E191" s="0" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F191" s="19" t="n">
-        <v>-1105</v>
-      </c>
-      <c r="G191" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H191" s="0" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I191" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J191" s="0" t="n">
-        <v>-1105</v>
-      </c>
-      <c r="K191" s="0" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="L191" s="0" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="M191" s="2" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="N191" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O191" s="2" t="n">
-        <v>506</v>
-      </c>
-      <c r="P191" s="2" t="n">
-        <v>175</v>
-      </c>
       <c r="Q191" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="R191" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="S191" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="T191" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="U191" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="V191" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="W191" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="X191" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Y191" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z191" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="AA191" s="0" t="n">
-        <v>60</v>
+        <v>299</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14625,43 +15123,43 @@
         <v>0.01</v>
       </c>
       <c r="F192" s="19" t="n">
-        <v>-1573</v>
+        <v>-1105</v>
       </c>
       <c r="G192" s="18" t="n">
         <v>0</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="I192" s="13" t="n">
-        <v>0.37</v>
+        <v>1.3</v>
+      </c>
+      <c r="I192" s="0" t="n">
+        <v>0.4</v>
       </c>
       <c r="J192" s="0" t="n">
-        <v>-1686</v>
+        <v>-1105</v>
       </c>
       <c r="K192" s="0" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="L192" s="0" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="M192" s="2" t="n">
-        <v>2.46</v>
+        <v>2.33</v>
       </c>
       <c r="N192" s="2" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="O192" s="2" t="n">
-        <v>388</v>
+        <v>506</v>
       </c>
       <c r="P192" s="2" t="n">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="Q192" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="R192" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="S192" s="0" t="n">
         <v>100</v>
@@ -14708,43 +15206,43 @@
         <v>0.01</v>
       </c>
       <c r="F193" s="19" t="n">
-        <v>-1113</v>
+        <v>-1573</v>
       </c>
       <c r="G193" s="18" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="I193" s="0" t="n">
-        <v>0.41</v>
+        <v>1.41</v>
+      </c>
+      <c r="I193" s="13" t="n">
+        <v>0.37</v>
       </c>
       <c r="J193" s="0" t="n">
-        <v>-1728</v>
+        <v>-1686</v>
       </c>
       <c r="K193" s="0" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="L193" s="13" t="n">
-        <v>0.33</v>
+        <v>1.22</v>
+      </c>
+      <c r="L193" s="0" t="n">
+        <v>0.34</v>
       </c>
       <c r="M193" s="2" t="n">
-        <v>2.09</v>
+        <v>2.46</v>
       </c>
       <c r="N193" s="2" t="n">
-        <v>0.57</v>
+        <v>0.48</v>
       </c>
       <c r="O193" s="2" t="n">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="P193" s="2" t="n">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="Q193" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="R193" s="0" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="S193" s="0" t="n">
         <v>100</v>
@@ -14770,8 +15268,8 @@
       <c r="Z193" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="AD193" s="0" t="s">
-        <v>163</v>
+      <c r="AA193" s="0" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14790,44 +15288,44 @@
       <c r="E194" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="F194" s="3" t="n">
-        <v>-2042</v>
-      </c>
-      <c r="G194" s="0" t="n">
+      <c r="F194" s="19" t="n">
+        <v>-1113</v>
+      </c>
+      <c r="G194" s="18" t="n">
         <v>0.06</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="J194" s="0" t="n">
-        <v>-2042</v>
+        <v>-1728</v>
       </c>
       <c r="K194" s="0" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L194" s="0" t="n">
-        <v>0.37</v>
+        <v>1.14</v>
+      </c>
+      <c r="L194" s="13" t="n">
+        <v>0.33</v>
       </c>
       <c r="M194" s="2" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="N194" s="26" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O194" s="4" t="n">
-        <v>283</v>
-      </c>
-      <c r="P194" s="4" t="n">
-        <v>100</v>
+        <v>2.09</v>
+      </c>
+      <c r="N194" s="2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O194" s="2" t="n">
+        <v>371</v>
+      </c>
+      <c r="P194" s="2" t="n">
+        <v>184</v>
       </c>
       <c r="Q194" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="R194" s="0" t="s">
-        <v>301</v>
+        <v>75</v>
       </c>
       <c r="S194" s="0" t="n">
         <v>100</v>
@@ -14853,8 +15351,8 @@
       <c r="Z194" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="AA194" s="0" t="n">
-        <v>60</v>
+      <c r="AD194" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14874,43 +15372,43 @@
         <v>0.01</v>
       </c>
       <c r="F195" s="3" t="n">
-        <v>-893</v>
+        <v>-2042</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>1.29</v>
+        <v>1.71</v>
       </c>
       <c r="I195" s="0" t="n">
         <v>0.39</v>
       </c>
       <c r="J195" s="0" t="n">
-        <v>-1220</v>
+        <v>-2042</v>
       </c>
       <c r="K195" s="0" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="L195" s="0" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="M195" s="2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="N195" s="2" t="n">
-        <v>0.38</v>
+        <v>1.82</v>
+      </c>
+      <c r="N195" s="26" t="n">
+        <v>0.35</v>
       </c>
       <c r="O195" s="4" t="n">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="P195" s="4" t="n">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="Q195" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="R195" s="0" t="s">
-        <v>199</v>
+        <v>304</v>
       </c>
       <c r="S195" s="0" t="n">
         <v>100</v>
@@ -14935,6 +15433,9 @@
       </c>
       <c r="Z195" s="0" t="n">
         <v>200</v>
+      </c>
+      <c r="AA195" s="0" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14954,43 +15455,43 @@
         <v>0.01</v>
       </c>
       <c r="F196" s="3" t="n">
-        <v>-1400</v>
+        <v>-893</v>
       </c>
       <c r="G196" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="J196" s="0" t="n">
-        <v>-1764</v>
+        <v>-1220</v>
       </c>
       <c r="K196" s="0" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="L196" s="0" t="n">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
       <c r="M196" s="2" t="n">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="N196" s="2" t="n">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="O196" s="4" t="n">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="P196" s="4" t="n">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="Q196" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="R196" s="0" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="S196" s="0" t="n">
         <v>100</v>
@@ -15016,13 +15517,10 @@
       <c r="Z196" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="AA196" s="0" t="n">
-        <v>60</v>
-      </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B197" s="1" t="n">
         <v>7951</v>
@@ -15037,43 +15535,43 @@
         <v>0.01</v>
       </c>
       <c r="F197" s="3" t="n">
-        <v>-2700</v>
+        <v>-1400</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>4.64</v>
+        <v>0</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>0.22</v>
+        <v>1.3</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>0.08</v>
+        <v>0.36</v>
       </c>
       <c r="J197" s="0" t="n">
-        <v>-2700</v>
+        <v>-1764</v>
       </c>
       <c r="K197" s="0" t="n">
-        <v>0.22</v>
+        <v>1.14</v>
       </c>
       <c r="L197" s="0" t="n">
-        <v>0.081</v>
+        <v>0.33</v>
       </c>
       <c r="M197" s="2" t="n">
-        <v>0.224</v>
+        <v>2.05</v>
       </c>
       <c r="N197" s="2" t="n">
-        <v>0.081</v>
+        <v>0.46</v>
       </c>
       <c r="O197" s="4" t="n">
-        <v>224</v>
-      </c>
-      <c r="P197" s="17" t="n">
-        <v>81</v>
+        <v>334</v>
+      </c>
+      <c r="P197" s="4" t="n">
+        <v>138</v>
       </c>
       <c r="Q197" s="0" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="R197" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="S197" s="0" t="n">
         <v>100</v>
@@ -15102,28 +15600,196 @@
       <c r="AA197" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="AB197" s="0" t="n">
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B198" s="1" t="n">
+        <v>7951</v>
+      </c>
+      <c r="C198" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D198" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E198" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F198" s="3" t="n">
+        <v>-2700</v>
+      </c>
+      <c r="G198" s="0" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="H198" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I198" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J198" s="0" t="n">
+        <v>-2700</v>
+      </c>
+      <c r="K198" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L198" s="0" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="M198" s="2" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="N198" s="2" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="O198" s="4" t="n">
+        <v>224</v>
+      </c>
+      <c r="P198" s="17" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q198" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="R198" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="S198" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T198" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="U198" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="V198" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="W198" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="X198" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y198" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z198" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA198" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB198" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="AD197" s="0" t="s">
+      <c r="AD198" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="AE197" s="0" t="s">
+      <c r="AE198" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="AF197" s="0" t="n">
+      <c r="AF198" s="0" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O213" s="0" t="n">
-        <v>86</v>
-      </c>
-      <c r="P213" s="31" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG213" s="0" t="n">
-        <v>0.52</v>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="C201" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D201" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E201" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O201" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="P201" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q201" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="R201" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O202" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="P202" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q202" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="R202" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B203" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="O203" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="P203" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q203" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B204" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="O204" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="P204" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="Q204" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG204" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B205" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="P205" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q205" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B206" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="P206" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q206" s="0" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -15142,10 +15808,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -15155,72 +15821,58 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>8292</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1668</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>8292</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>2314</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>60</v>
+      <c r="A7" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>3413</v>
+        <v>8292</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2626</v>
+        <v>1668</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>100</v>
@@ -15228,10 +15880,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>3413</v>
+        <v>8292</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>4376</v>
+        <v>2314</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>60</v>
@@ -15239,7 +15891,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>6990</v>
+        <v>3413</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2626</v>
@@ -15250,7 +15902,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>6990</v>
+        <v>3413</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>4376</v>
@@ -15261,23 +15913,45 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>7951</v>
+        <v>6990</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>4376</v>
+        <v>2626</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>2859</v>
+        <v>6990</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>4376</v>
       </c>
       <c r="C14" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>7951</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>4376</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>2859</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>4376</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>60</v>
       </c>
     </row>
@@ -15290,4 +15964,1244 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="true">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.0102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.6734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.8112244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.0918367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.1122448979592"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.1887755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="43.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" s="31" t="n">
+        <v>8292</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31" t="n">
+        <v>52</v>
+      </c>
+      <c r="G2" s="31" t="n">
+        <v>44</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="I2" s="31" t="n">
+        <v>45</v>
+      </c>
+      <c r="J2" s="32"/>
+      <c r="K2" s="31" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3" s="31" t="n">
+        <v>8292</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="F3" s="31" t="n">
+        <v>49</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="I3" s="33" t="n">
+        <v>43</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="B4" s="31" t="n">
+        <v>8292</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="F4" s="31" t="n">
+        <v>52</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="I4" s="35" t="n">
+        <v>44</v>
+      </c>
+      <c r="J4" s="34"/>
+      <c r="K4" s="35" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="B5" s="36" t="n">
+        <v>8292</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="F5" s="36" t="n">
+        <v>52</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="I5" s="37" t="n">
+        <v>45</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6" s="31" t="n">
+        <v>3413</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31" t="n">
+        <v>37</v>
+      </c>
+      <c r="G6" s="31" t="n">
+        <v>29</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="I6" s="31" t="n">
+        <v>30</v>
+      </c>
+      <c r="J6" s="32"/>
+      <c r="K6" s="31" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="B7" s="31" t="n">
+        <v>3413</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F7" s="31" t="n">
+        <v>31</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="I7" s="39" t="n">
+        <v>25</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="B8" s="31" t="n">
+        <v>3413</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31" t="n">
+        <v>37</v>
+      </c>
+      <c r="G8" s="31" t="n">
+        <v>29</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="I8" s="31" t="n">
+        <v>30</v>
+      </c>
+      <c r="J8" s="32"/>
+      <c r="K8" s="31"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="B9" s="31" t="n">
+        <v>3413</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="31"/>
+      <c r="B10" s="40" t="n">
+        <v>3413</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>372</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>373</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="I10" s="40" t="n">
+        <v>42</v>
+      </c>
+      <c r="J10" s="41"/>
+      <c r="K10" s="31" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="31"/>
+      <c r="B11" s="40" t="n">
+        <v>3413</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40" t="n">
+        <v>65</v>
+      </c>
+      <c r="J11" s="41"/>
+      <c r="K11" s="35" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="B12" s="36" t="n">
+        <v>3413</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="F12" s="36" t="n">
+        <v>35</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="I12" s="37" t="n">
+        <v>31</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="B13" s="31" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31" t="n">
+        <v>15</v>
+      </c>
+      <c r="G13" s="31" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="I13" s="31" t="n">
+        <v>11</v>
+      </c>
+      <c r="J13" s="32"/>
+      <c r="K13" s="31" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="B14" s="31" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="F14" s="31" t="n">
+        <v>16</v>
+      </c>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="I14" s="39" t="n">
+        <v>11</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="I15" s="31" t="n">
+        <v>16</v>
+      </c>
+      <c r="J15" s="32"/>
+      <c r="K15" s="31"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="B16" s="36" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="F16" s="36" t="n">
+        <v>22</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="I16" s="37" t="n">
+        <v>14</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="B17" s="31" t="n">
+        <v>6990</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31" t="n">
+        <v>43</v>
+      </c>
+      <c r="G17" s="31" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="I17" s="31" t="n">
+        <v>30</v>
+      </c>
+      <c r="J17" s="32"/>
+      <c r="K17" s="31" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="B18" s="31" t="n">
+        <v>6990</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="F18" s="31" t="n">
+        <v>68</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="I18" s="39" t="n">
+        <v>49</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="K18" s="31"/>
+      <c r="L18" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="31"/>
+      <c r="B19" s="40" t="n">
+        <v>6990</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="I19" s="40" t="n">
+        <v>135</v>
+      </c>
+      <c r="J19" s="41"/>
+      <c r="K19" s="40" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31" t="n">
+        <v>6990</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="F20" s="31" t="n">
+        <v>98</v>
+      </c>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="I20" s="31" t="n">
+        <v>67</v>
+      </c>
+      <c r="J20" s="32"/>
+      <c r="K20" s="31" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="B21" s="40" t="n">
+        <v>6990</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="F21" s="42" t="n">
+        <v>65</v>
+      </c>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="I21" s="42" t="n">
+        <v>47</v>
+      </c>
+      <c r="J21" s="43"/>
+      <c r="K21" s="31" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40" t="n">
+        <v>6990</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="F22" s="40" t="n">
+        <v>66</v>
+      </c>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="I22" s="42" t="n">
+        <v>48</v>
+      </c>
+      <c r="J22" s="43"/>
+      <c r="K22" s="31" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="B23" s="31" t="n">
+        <v>6990</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="F23" s="31" t="n">
+        <v>94</v>
+      </c>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="I23" s="35" t="n">
+        <v>63</v>
+      </c>
+      <c r="J23" s="34"/>
+      <c r="K23" s="31" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31" t="n">
+        <v>6990</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="F24" s="31" t="n">
+        <v>102</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>421</v>
+      </c>
+      <c r="I24" s="35" t="n">
+        <v>68</v>
+      </c>
+      <c r="J24" s="34"/>
+      <c r="K24" s="31" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31" t="n">
+        <v>6990</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>422</v>
+      </c>
+      <c r="F25" s="31" t="n">
+        <v>44</v>
+      </c>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="I25" s="35" t="n">
+        <v>31</v>
+      </c>
+      <c r="J25" s="34"/>
+      <c r="K25" s="31" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31" t="n">
+        <v>6990</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="F26" s="31" t="n">
+        <v>90</v>
+      </c>
+      <c r="G26" s="31"/>
+      <c r="H26" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="I26" s="35" t="n">
+        <v>61</v>
+      </c>
+      <c r="J26" s="34"/>
+      <c r="K26" s="31" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31" t="n">
+        <v>6990</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="F27" s="31" t="n">
+        <v>90</v>
+      </c>
+      <c r="G27" s="31"/>
+      <c r="H27" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="I27" s="35" t="n">
+        <v>62</v>
+      </c>
+      <c r="J27" s="34"/>
+      <c r="K27" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31" t="n">
+        <v>6990</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="I28" s="35" t="n">
+        <v>46</v>
+      </c>
+      <c r="J28" s="34"/>
+      <c r="K28" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="B29" s="36" t="n">
+        <v>6990</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>438</v>
+      </c>
+      <c r="F29" s="36" t="n">
+        <v>99</v>
+      </c>
+      <c r="G29" s="36"/>
+      <c r="H29" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="I29" s="33" t="n">
+        <v>66</v>
+      </c>
+      <c r="J29" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="K29" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="B30" s="31" t="n">
+        <v>7951</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31" t="n">
+        <v>81</v>
+      </c>
+      <c r="G30" s="31" t="n">
+        <v>50</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="I30" s="31" t="n">
+        <v>55</v>
+      </c>
+      <c r="J30" s="32"/>
+      <c r="K30" s="31"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="B31" s="31" t="n">
+        <v>7951</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="I31" s="39" t="n">
+        <v>57</v>
+      </c>
+      <c r="J31" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="K31" s="31"/>
+      <c r="L31" s="0" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="31"/>
+      <c r="B32" s="31" t="n">
+        <v>7951</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="I32" s="31" t="n">
+        <v>58</v>
+      </c>
+      <c r="J32" s="32"/>
+      <c r="K32" s="31"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="B33" s="40" t="n">
+        <v>7951</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>447</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="F33" s="40" t="n">
+        <v>120</v>
+      </c>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40" t="s">
+        <v>449</v>
+      </c>
+      <c r="I33" s="42" t="n">
+        <v>80</v>
+      </c>
+      <c r="J33" s="43"/>
+      <c r="K33" s="40" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="40"/>
+      <c r="B34" s="40" t="n">
+        <v>7951</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>451</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>452</v>
+      </c>
+      <c r="F34" s="40" t="n">
+        <v>58</v>
+      </c>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40" t="s">
+        <v>453</v>
+      </c>
+      <c r="I34" s="40" t="n">
+        <v>42</v>
+      </c>
+      <c r="J34" s="41"/>
+      <c r="K34" s="40" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="B35" s="31" t="n">
+        <v>7951</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>456</v>
+      </c>
+      <c r="F35" s="31" t="n">
+        <v>40</v>
+      </c>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="I35" s="31" t="n">
+        <v>30</v>
+      </c>
+      <c r="J35" s="32"/>
+      <c r="K35" s="31" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="31" t="n">
+        <v>7951</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="J36" s="45"/>
+      <c r="K36" s="0" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="B37" s="36" t="n">
+        <v>7951</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>443</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="F37" s="44" t="n">
+        <v>66</v>
+      </c>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44" t="s">
+        <v>464</v>
+      </c>
+      <c r="I37" s="46" t="n">
+        <v>46</v>
+      </c>
+      <c r="J37" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>466</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M37">
+    <filterColumn colId="9">
+      <customFilters and="true">
+        <customFilter operator="**none**" val=""/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="0">
+      <customFilters and="true">
+        <customFilter operator="equal" val="New split new train"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>